--- a/AllYearsMerged.xlsx
+++ b/AllYearsMerged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="259">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>28870515</t>
   </si>
   <si>
@@ -716,6 +722,75 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Outsourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
+    <t>Strategisk beslutning</t>
+  </si>
+  <si>
+    <t>Pris</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Ikke flere medarbejdere i virksomheden</t>
+  </si>
+  <si>
+    <t>Fusionerer med anden virksomhed</t>
+  </si>
+  <si>
+    <t>Bruger ikke produktet</t>
+  </si>
+  <si>
+    <t>Covid-19</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Systemet (uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Ventetid på telefon)</t>
+  </si>
+  <si>
+    <t>Virksomheden lukker</t>
+  </si>
+  <si>
+    <t>Konkurs</t>
+  </si>
+  <si>
+    <t>Insourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
+    <t>DataLøn</t>
+  </si>
+  <si>
+    <t>Vil ikke oplyse</t>
+  </si>
+  <si>
+    <t>Lessor</t>
+  </si>
+  <si>
+    <t>Danløn</t>
+  </si>
+  <si>
+    <t>Intect</t>
+  </si>
+  <si>
+    <t>Corp System</t>
+  </si>
+  <si>
+    <t>Zenegy</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -1077,13 +1152,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,10 +1174,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -1111,15 +1192,18 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -1128,15 +1212,21 @@
         <v>77346.97</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E3" s="2">
         <v>44208</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -1145,15 +1235,18 @@
         <v>52126.72</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E4" s="2">
         <v>44209</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -1162,15 +1255,18 @@
         <v>13053.78</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E5" s="2">
         <v>44224</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -1179,15 +1275,18 @@
         <v>28895.99</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E6" s="2">
         <v>44202</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -1196,15 +1295,18 @@
         <v>36113.01</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E7" s="2">
         <v>44218</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -1213,15 +1315,21 @@
         <v>50524.99</v>
       </c>
       <c r="D8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E8" s="2">
         <v>44217</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -1230,15 +1338,21 @@
         <v>39790.38</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E9" s="2">
         <v>44228</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -1247,15 +1361,21 @@
         <v>59748.16</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E10" s="2">
         <v>44229</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -1264,15 +1384,21 @@
         <v>20969.32</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E11" s="2">
         <v>44267</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -1281,15 +1407,18 @@
         <v>26744.54</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E12" s="2">
         <v>44260</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -1298,15 +1427,18 @@
         <v>159260.11</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E13" s="2">
         <v>44265</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -1315,15 +1447,18 @@
         <v>15000</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E14" s="2">
         <v>44267</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -1332,15 +1467,18 @@
         <v>180204.78</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E15" s="2">
         <v>44259</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -1349,15 +1487,21 @@
         <v>17060.16</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E16" s="2">
         <v>44279</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -1366,15 +1510,18 @@
         <v>48008.41</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2">
         <v>44279</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>2021</v>
@@ -1383,15 +1530,21 @@
         <v>14114.21</v>
       </c>
       <c r="D18" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E18" s="2">
         <v>44293</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>236</v>
+      </c>
+      <c r="G18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>2021</v>
@@ -1400,15 +1553,18 @@
         <v>12344.44</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E19" s="2">
         <v>44285</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>2021</v>
@@ -1417,15 +1573,18 @@
         <v>23323</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2">
         <v>44281</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>2021</v>
@@ -1434,15 +1593,18 @@
         <v>143670.95</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E21" s="2">
         <v>44286</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>2021</v>
@@ -1451,15 +1613,18 @@
         <v>15000</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E22" s="2">
         <v>44300</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -1468,15 +1633,18 @@
         <v>15563.96</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E23" s="2">
         <v>44306</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>2021</v>
@@ -1485,15 +1653,18 @@
         <v>42997.07</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E24" s="2">
         <v>44299</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>2021</v>
@@ -1502,15 +1673,18 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E25" s="2">
         <v>44314</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>2021</v>
@@ -1519,15 +1693,18 @@
         <v>51618.2</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E26" s="2">
         <v>44315</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>2021</v>
@@ -1536,15 +1713,18 @@
         <v>118122.86</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E27" s="2">
         <v>44315</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>2021</v>
@@ -1553,15 +1733,18 @@
         <v>101094.66</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E28" s="2">
         <v>44314</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>2021</v>
@@ -1570,15 +1753,18 @@
         <v>15511.36</v>
       </c>
       <c r="D29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E29" s="2">
         <v>44326</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>2021</v>
@@ -1587,15 +1773,18 @@
         <v>144961.24</v>
       </c>
       <c r="D30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E30" s="2">
         <v>44315</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>2021</v>
@@ -1604,15 +1793,18 @@
         <v>109548</v>
       </c>
       <c r="D31" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E31" s="2">
         <v>44344</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>2021</v>
@@ -1621,15 +1813,18 @@
         <v>19589.49</v>
       </c>
       <c r="D32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E32" s="2">
         <v>44336</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>2021</v>
@@ -1638,15 +1833,18 @@
         <v>74992</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E33" s="2">
         <v>44347</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>2021</v>
@@ -1655,15 +1853,18 @@
         <v>109791.88</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E34" s="2">
         <v>44347</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>2021</v>
@@ -1672,15 +1873,18 @@
         <v>24096</v>
       </c>
       <c r="D35" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E35" s="2">
         <v>44350</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>2021</v>
@@ -1689,15 +1893,18 @@
         <v>32894</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E36" s="2">
         <v>44363</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1706,15 +1913,21 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E37" s="2">
         <v>44348</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>2021</v>
@@ -1723,15 +1936,18 @@
         <v>79410</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E38" s="2">
         <v>44355</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>2021</v>
@@ -1740,15 +1956,18 @@
         <v>51608.6</v>
       </c>
       <c r="D39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E39" s="2">
         <v>44368</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>2021</v>
@@ -1757,15 +1976,18 @@
         <v>49192.74</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E40" s="2">
         <v>44375</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>2021</v>
@@ -1774,15 +1996,21 @@
         <v>47508</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E41" s="2">
         <v>44376</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>2021</v>
@@ -1791,15 +2019,18 @@
         <v>32673</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E42" s="2">
         <v>44375</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>2021</v>
@@ -1808,15 +2039,18 @@
         <v>48167</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E43" s="2">
         <v>44376</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>2021</v>
@@ -1825,15 +2059,18 @@
         <v>98778.67</v>
       </c>
       <c r="D44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E44" s="2">
         <v>44376</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>2021</v>
@@ -1842,15 +2079,18 @@
         <v>21226.54</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E45" s="2">
         <v>44385</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>2021</v>
@@ -1859,15 +2099,21 @@
         <v>1018113</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E46" s="2">
         <v>44377</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>2021</v>
@@ -1876,15 +2122,18 @@
         <v>145281</v>
       </c>
       <c r="D47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E47" s="2">
         <v>44376</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>2021</v>
@@ -1893,15 +2142,18 @@
         <v>437295</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E48" s="2">
         <v>44354</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>2021</v>
@@ -1910,15 +2162,21 @@
         <v>48600</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E49" s="2">
         <v>44371</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>2021</v>
@@ -1927,15 +2185,21 @@
         <v>78696</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E50" s="2">
         <v>44371</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>245</v>
+      </c>
+      <c r="G50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>2021</v>
@@ -1944,15 +2208,18 @@
         <v>27360</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E51" s="2">
         <v>44407</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>2021</v>
@@ -1961,15 +2228,18 @@
         <v>54307</v>
       </c>
       <c r="D52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E52" s="2">
         <v>44382</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>2021</v>
@@ -1978,15 +2248,18 @@
         <v>18049.5</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E53" s="2">
         <v>44410</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>2021</v>
@@ -1995,15 +2268,21 @@
         <v>426000</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E54" s="2">
         <v>44374</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>2021</v>
@@ -2012,15 +2291,18 @@
         <v>96164</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E55" s="2">
         <v>44438</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>2021</v>
@@ -2029,15 +2311,21 @@
         <v>21660</v>
       </c>
       <c r="D56" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E56" s="2">
         <v>44440</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G56" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>2021</v>
@@ -2046,15 +2334,18 @@
         <v>164796</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E57" s="2">
         <v>44432</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>2021</v>
@@ -2063,15 +2354,18 @@
         <v>226636</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E58" s="2">
         <v>44439</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>2021</v>
@@ -2080,15 +2374,18 @@
         <v>117341</v>
       </c>
       <c r="D59" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E59" s="2">
         <v>44462</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>2021</v>
@@ -2097,15 +2394,18 @@
         <v>150297</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E60" s="2">
         <v>44461</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>2021</v>
@@ -2114,15 +2414,18 @@
         <v>25140.84</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E61" s="2">
         <v>44463</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>2021</v>
@@ -2131,15 +2434,18 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E62" s="2">
         <v>44463</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>2021</v>
@@ -2148,15 +2454,18 @@
         <v>30000</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E63" s="2">
         <v>44454</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>2021</v>
@@ -2165,15 +2474,18 @@
         <v>72674.92</v>
       </c>
       <c r="D64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E64" s="2">
         <v>44469</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
         <v>2021</v>
@@ -2182,15 +2494,18 @@
         <v>158752.08</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E65" s="2">
         <v>44483</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>2021</v>
@@ -2199,15 +2514,18 @@
         <v>36348</v>
       </c>
       <c r="D66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E66" s="2">
         <v>44463</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>2021</v>
@@ -2216,15 +2534,18 @@
         <v>17258.07</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E67" s="2">
         <v>44489</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
         <v>2021</v>
@@ -2233,15 +2554,18 @@
         <v>36000</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E68" s="2">
         <v>44438</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
         <v>2021</v>
@@ -2250,15 +2574,21 @@
         <v>321844</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E69" s="2">
         <v>44438</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>239</v>
+      </c>
+      <c r="G69" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>2021</v>
@@ -2267,15 +2597,18 @@
         <v>30320</v>
       </c>
       <c r="D70" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E70" s="2">
         <v>44483</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
         <v>2021</v>
@@ -2284,15 +2617,21 @@
         <v>61133.08</v>
       </c>
       <c r="D71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E71" s="2">
         <v>44498</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>2021</v>
@@ -2301,15 +2640,18 @@
         <v>11524</v>
       </c>
       <c r="D72" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E72" s="2">
         <v>44503</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>2021</v>
@@ -2318,15 +2660,18 @@
         <v>35463.96</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E73" s="2">
         <v>44498</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
         <v>2021</v>
@@ -2335,15 +2680,18 @@
         <v>123014.81</v>
       </c>
       <c r="D74" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E74" s="2">
         <v>44518</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
         <v>2021</v>
@@ -2352,15 +2700,18 @@
         <v>97596.27</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E75" s="2">
         <v>44515</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>2021</v>
@@ -2369,15 +2720,18 @@
         <v>18103.47</v>
       </c>
       <c r="D76" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E76" s="2">
         <v>44523</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>2021</v>
@@ -2386,15 +2740,21 @@
         <v>21375.84</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E77" s="2">
         <v>44505</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>2021</v>
@@ -2403,15 +2763,18 @@
         <v>77675.48</v>
       </c>
       <c r="D78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E78" s="2">
         <v>44498</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>2021</v>
@@ -2420,15 +2783,18 @@
         <v>137845</v>
       </c>
       <c r="D79" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E79" s="2">
         <v>44448</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>2021</v>
@@ -2437,15 +2803,18 @@
         <v>387640</v>
       </c>
       <c r="D80" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E80" s="2">
         <v>44467</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>2021</v>
@@ -2454,15 +2823,18 @@
         <v>65365</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E81" s="2">
         <v>44530</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>2021</v>
@@ -2471,15 +2843,18 @@
         <v>59696</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E82" s="2">
         <v>44531</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
         <v>2021</v>
@@ -2488,15 +2863,18 @@
         <v>33761</v>
       </c>
       <c r="D83" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E83" s="2">
         <v>44545</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>2021</v>
@@ -2505,15 +2883,18 @@
         <v>33034</v>
       </c>
       <c r="D84" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E84" s="2">
         <v>44498</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>2021</v>
@@ -2522,15 +2903,18 @@
         <v>162281</v>
       </c>
       <c r="D85" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E85" s="2">
         <v>44530</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>2021</v>
@@ -2539,15 +2923,18 @@
         <v>22438</v>
       </c>
       <c r="D86" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E86" s="2">
         <v>44546</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>2021</v>
@@ -2556,15 +2943,18 @@
         <v>18120</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E87" s="2">
         <v>44498</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>2021</v>
@@ -2573,15 +2963,18 @@
         <v>37004</v>
       </c>
       <c r="D88" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E88" s="2">
         <v>44550</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>2021</v>
@@ -2590,15 +2983,18 @@
         <v>55692.36</v>
       </c>
       <c r="D89" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E89" s="2">
         <v>44540</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>2021</v>
@@ -2607,15 +3003,18 @@
         <v>58860</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E90" s="2">
         <v>44553</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>2021</v>
@@ -2624,15 +3023,18 @@
         <v>1724952</v>
       </c>
       <c r="D91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E91" s="2">
         <v>44494</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>2021</v>
@@ -2641,15 +3043,18 @@
         <v>156000</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E92" s="2">
         <v>44466</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>2022</v>
@@ -2658,15 +3063,18 @@
         <v>1783320</v>
       </c>
       <c r="D93" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E93" s="2">
         <v>44557</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>2022</v>
@@ -2675,15 +3083,21 @@
         <v>44529.04</v>
       </c>
       <c r="D94" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E94" s="2">
         <v>44583</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" t="s">
+        <v>239</v>
+      </c>
+      <c r="G94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>2022</v>
@@ -2692,15 +3106,18 @@
         <v>195393.13</v>
       </c>
       <c r="D95" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E95" s="2">
         <v>44587</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>2022</v>
@@ -2709,15 +3126,18 @@
         <v>16357.92</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E96" s="2">
         <v>44589</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>2022</v>
@@ -2726,15 +3146,21 @@
         <v>86395.57000000001</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E97" s="2">
         <v>44592</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" t="s">
+        <v>240</v>
+      </c>
+      <c r="G97" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>2022</v>
@@ -2743,15 +3169,18 @@
         <v>65843.74000000001</v>
       </c>
       <c r="D98" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E98" s="2">
         <v>44592</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>2022</v>
@@ -2760,15 +3189,18 @@
         <v>44071.91</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E99" s="2">
         <v>44593</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>2022</v>
@@ -2777,15 +3209,18 @@
         <v>18108</v>
       </c>
       <c r="D100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E100" s="2">
         <v>44594</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>2022</v>
@@ -2794,15 +3229,18 @@
         <v>123510</v>
       </c>
       <c r="D101" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E101" s="2">
         <v>44594</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>2022</v>
@@ -2811,15 +3249,18 @@
         <v>32379.56</v>
       </c>
       <c r="D102" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E102" s="2">
         <v>44599</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>2022</v>
@@ -2828,15 +3269,21 @@
         <v>2206300</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E103" s="2">
         <v>44599</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" t="s">
+        <v>246</v>
+      </c>
+      <c r="G103" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>2022</v>
@@ -2845,15 +3292,18 @@
         <v>59444.88</v>
       </c>
       <c r="D104" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E104" s="2">
         <v>44600</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>2022</v>
@@ -2862,15 +3312,18 @@
         <v>27046.56</v>
       </c>
       <c r="D105" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E105" s="2">
         <v>44601</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>2022</v>
@@ -2879,15 +3332,18 @@
         <v>78090</v>
       </c>
       <c r="D106" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E106" s="2">
         <v>44602</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>2022</v>
@@ -2896,15 +3352,18 @@
         <v>131316</v>
       </c>
       <c r="D107" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E107" s="2">
         <v>44609</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B108">
         <v>2022</v>
@@ -2913,15 +3372,18 @@
         <v>26775.27</v>
       </c>
       <c r="D108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E108" s="2">
         <v>44609</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B109">
         <v>2022</v>
@@ -2930,15 +3392,18 @@
         <v>21714.47</v>
       </c>
       <c r="D109" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E109" s="2">
         <v>44615</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B110">
         <v>2022</v>
@@ -2947,15 +3412,18 @@
         <v>284992.08</v>
       </c>
       <c r="D110" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E110" s="2">
         <v>44615</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111">
         <v>2022</v>
@@ -2964,15 +3432,18 @@
         <v>79981.99000000001</v>
       </c>
       <c r="D111" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E111" s="2">
         <v>44617</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>2022</v>
@@ -2981,15 +3452,18 @@
         <v>73747</v>
       </c>
       <c r="D112" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E112" s="2">
         <v>44617</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>2022</v>
@@ -2998,15 +3472,18 @@
         <v>154056.97</v>
       </c>
       <c r="D113" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E113" s="2">
         <v>44620</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>2022</v>
@@ -3015,15 +3492,18 @@
         <v>22255.93</v>
       </c>
       <c r="D114" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E114" s="2">
         <v>44620</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>2022</v>
@@ -3032,15 +3512,18 @@
         <v>12087</v>
       </c>
       <c r="D115" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E115" s="2">
         <v>44620</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>2022</v>
@@ -3049,15 +3532,18 @@
         <v>229700</v>
       </c>
       <c r="D116" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E116" s="2">
         <v>44630</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>2022</v>
@@ -3066,15 +3552,18 @@
         <v>153000</v>
       </c>
       <c r="D117" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E117" s="2">
         <v>44631</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>2022</v>
@@ -3083,15 +3572,18 @@
         <v>4467</v>
       </c>
       <c r="D118" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E118" s="2">
         <v>44634</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B119">
         <v>2022</v>
@@ -3100,15 +3592,18 @@
         <v>46500</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E119" s="2">
         <v>44637</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>2022</v>
@@ -3117,15 +3612,18 @@
         <v>113561</v>
       </c>
       <c r="D120" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E120" s="2">
         <v>44643</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121">
         <v>2022</v>
@@ -3134,15 +3632,18 @@
         <v>50075</v>
       </c>
       <c r="D121" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E121" s="2">
         <v>44645</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>2022</v>
@@ -3151,15 +3652,18 @@
         <v>264132</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E122" s="2">
         <v>44645</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123">
         <v>2022</v>
@@ -3168,15 +3672,18 @@
         <v>95656.64999999999</v>
       </c>
       <c r="D123" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E123" s="2">
         <v>44649</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B124">
         <v>2022</v>
@@ -3185,15 +3692,18 @@
         <v>19712.96</v>
       </c>
       <c r="D124" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E124" s="2">
         <v>44649</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B125">
         <v>2022</v>
@@ -3202,15 +3712,18 @@
         <v>5520</v>
       </c>
       <c r="D125" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E125" s="2">
         <v>44652</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B126">
         <v>2022</v>
@@ -3219,15 +3732,21 @@
         <v>15000</v>
       </c>
       <c r="D126" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E126" s="2">
         <v>44655</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" t="s">
+        <v>243</v>
+      </c>
+      <c r="G126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B127">
         <v>2022</v>
@@ -3236,15 +3755,18 @@
         <v>44929.04</v>
       </c>
       <c r="D127" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E127" s="2">
         <v>44655</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128">
         <v>2022</v>
@@ -3253,15 +3775,18 @@
         <v>2164926</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E128" s="2">
         <v>44656</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>2022</v>
@@ -3270,15 +3795,18 @@
         <v>5500</v>
       </c>
       <c r="D129" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E129" s="2">
         <v>44672</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B130">
         <v>2022</v>
@@ -3287,15 +3815,18 @@
         <v>80534</v>
       </c>
       <c r="D130" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E130" s="2">
         <v>44681</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131">
         <v>2022</v>
@@ -3304,15 +3835,18 @@
         <v>58657</v>
       </c>
       <c r="D131" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E131" s="2">
         <v>44685</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132">
         <v>2022</v>
@@ -3321,15 +3855,18 @@
         <v>259880</v>
       </c>
       <c r="D132" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E132" s="2">
         <v>44692</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133">
         <v>2022</v>
@@ -3338,15 +3875,18 @@
         <v>44851</v>
       </c>
       <c r="D133" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E133" s="2">
         <v>44719</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134">
         <v>2022</v>
@@ -3355,15 +3895,18 @@
         <v>15000</v>
       </c>
       <c r="D134" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E134" s="2">
         <v>44719</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135">
         <v>2022</v>
@@ -3372,15 +3915,18 @@
         <v>36000</v>
       </c>
       <c r="D135" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E135" s="2">
         <v>44732</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136">
         <v>2022</v>
@@ -3389,15 +3935,18 @@
         <v>85765.3</v>
       </c>
       <c r="D136" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E136" s="2">
         <v>44736</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B137">
         <v>2022</v>
@@ -3406,15 +3955,18 @@
         <v>41918.41</v>
       </c>
       <c r="D137" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E137" s="2">
         <v>44742</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B138">
         <v>2022</v>
@@ -3423,15 +3975,18 @@
         <v>141922</v>
       </c>
       <c r="D138" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E138" s="2">
         <v>44742</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>2022</v>
@@ -3440,15 +3995,18 @@
         <v>36000</v>
       </c>
       <c r="D139" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E139" s="2">
         <v>44742</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>2022</v>
@@ -3457,15 +4015,18 @@
         <v>53378.16</v>
       </c>
       <c r="D140" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E140" s="2">
         <v>44749</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>2022</v>
@@ -3474,15 +4035,18 @@
         <v>40191.95</v>
       </c>
       <c r="D141" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E141" s="2">
         <v>44753</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>2022</v>
@@ -3491,15 +4055,21 @@
         <v>33339.71</v>
       </c>
       <c r="D142" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E142" s="2">
         <v>44774</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" t="s">
+        <v>236</v>
+      </c>
+      <c r="G142" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>2022</v>
@@ -3508,15 +4078,18 @@
         <v>12000</v>
       </c>
       <c r="D143" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E143" s="2">
         <v>44775</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>2022</v>
@@ -3525,15 +4098,18 @@
         <v>142246</v>
       </c>
       <c r="D144" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E144" s="2">
         <v>44783</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>2022</v>
@@ -3542,15 +4118,18 @@
         <v>57060</v>
       </c>
       <c r="D145" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E145" s="2">
         <v>44784</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>2022</v>
@@ -3559,15 +4138,18 @@
         <v>24581</v>
       </c>
       <c r="D146" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E146" s="2">
         <v>44810</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>2022</v>
@@ -3576,15 +4158,18 @@
         <v>61008</v>
       </c>
       <c r="D147" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E147" s="2">
         <v>44811</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>2022</v>
@@ -3593,15 +4178,18 @@
         <v>108824</v>
       </c>
       <c r="D148" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E148" s="2">
         <v>44816</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>2022</v>
@@ -3610,15 +4198,18 @@
         <v>18449</v>
       </c>
       <c r="D149" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E149" s="2">
         <v>44820</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>2022</v>
@@ -3627,15 +4218,18 @@
         <v>9000</v>
       </c>
       <c r="D150" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E150" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>235</v>
+      </c>
+      <c r="F150" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>2022</v>
@@ -3644,15 +4238,18 @@
         <v>31068</v>
       </c>
       <c r="D151" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E151" s="2">
         <v>44831</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>2022</v>
@@ -3661,15 +4258,18 @@
         <v>48312</v>
       </c>
       <c r="D152" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E152" s="2">
         <v>44833</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>2022</v>
@@ -3678,15 +4278,18 @@
         <v>310116</v>
       </c>
       <c r="D153" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E153" s="2">
         <v>44823</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>2022</v>
@@ -3695,15 +4298,21 @@
         <v>145870</v>
       </c>
       <c r="D154" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E154" s="2">
         <v>44834</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" t="s">
+        <v>240</v>
+      </c>
+      <c r="G154" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>2022</v>
@@ -3712,15 +4321,18 @@
         <v>61182</v>
       </c>
       <c r="D155" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E155" s="2">
         <v>44858</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>2022</v>
@@ -3729,15 +4341,18 @@
         <v>564456</v>
       </c>
       <c r="D156" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E156" s="2">
         <v>44834</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>2022</v>
@@ -3746,15 +4361,18 @@
         <v>15360</v>
       </c>
       <c r="D157" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E157" s="2">
         <v>44852</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>2022</v>
@@ -3763,15 +4381,18 @@
         <v>17098</v>
       </c>
       <c r="D158" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E158" s="2">
         <v>44861</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>2022</v>
@@ -3780,15 +4401,18 @@
         <v>47117</v>
       </c>
       <c r="D159" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E159" s="2">
         <v>44862</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>2022</v>
@@ -3797,15 +4421,18 @@
         <v>71046</v>
       </c>
       <c r="D160" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E160" s="2">
         <v>44865</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>2022</v>
@@ -3814,15 +4441,18 @@
         <v>16796</v>
       </c>
       <c r="D161" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E161" s="2">
         <v>44865</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>2022</v>
@@ -3831,15 +4461,18 @@
         <v>30806</v>
       </c>
       <c r="D162" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E162" s="2">
         <v>44868</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>2022</v>
@@ -3848,15 +4481,18 @@
         <v>42583</v>
       </c>
       <c r="D163" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E163" s="2">
         <v>44872</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>2022</v>
@@ -3865,15 +4501,18 @@
         <v>15000</v>
       </c>
       <c r="D164" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E164" s="2">
         <v>44837</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>2022</v>
@@ -3882,15 +4521,18 @@
         <v>20172</v>
       </c>
       <c r="D165" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E165" s="2">
         <v>44873</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>2022</v>
@@ -3899,15 +4541,21 @@
         <v>1033505</v>
       </c>
       <c r="D166" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E166" s="2">
         <v>44891</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166" t="s">
+        <v>242</v>
+      </c>
+      <c r="G166" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>2022</v>
@@ -3916,15 +4564,21 @@
         <v>101508</v>
       </c>
       <c r="D167" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E167" s="2">
         <v>44875</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167" t="s">
+        <v>240</v>
+      </c>
+      <c r="G167" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>2022</v>
@@ -3933,15 +4587,18 @@
         <v>289659</v>
       </c>
       <c r="D168" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E168" s="2">
         <v>44890</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>2022</v>
@@ -3950,15 +4607,18 @@
         <v>44550</v>
       </c>
       <c r="D169" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E169" s="2">
         <v>44894</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>2022</v>
@@ -3967,15 +4627,18 @@
         <v>50482.04</v>
       </c>
       <c r="D170" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E170" s="2">
         <v>44831</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>2022</v>
@@ -3984,15 +4647,18 @@
         <v>186313</v>
       </c>
       <c r="D171" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E171" s="2">
         <v>44895</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>2022</v>
@@ -4001,15 +4667,18 @@
         <v>3432</v>
       </c>
       <c r="D172" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E172" s="2">
         <v>44895</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>2022</v>
@@ -4018,15 +4687,18 @@
         <v>24000</v>
       </c>
       <c r="D173" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E173" s="2">
         <v>44895</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>2022</v>
@@ -4035,15 +4707,18 @@
         <v>6072</v>
       </c>
       <c r="D174" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E174" s="2">
         <v>44915</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>2022</v>
@@ -4052,15 +4727,21 @@
         <v>90042.39999999999</v>
       </c>
       <c r="D175" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E175" s="2">
         <v>44916</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" t="s">
+        <v>240</v>
+      </c>
+      <c r="G175" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>2023</v>
@@ -4069,15 +4750,18 @@
         <v>4512</v>
       </c>
       <c r="D176" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E176" s="2">
         <v>44928</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>2023</v>
@@ -4086,15 +4770,21 @@
         <v>52852.17</v>
       </c>
       <c r="D177" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E177" s="2">
         <v>44936</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" t="s">
+        <v>240</v>
+      </c>
+      <c r="G177" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>2023</v>
@@ -4103,15 +4793,18 @@
         <v>150188</v>
       </c>
       <c r="D178" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E178" s="2">
         <v>44939</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>2023</v>
@@ -4120,15 +4813,18 @@
         <v>199392.4</v>
       </c>
       <c r="D179" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E179" s="2">
         <v>44950</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>2023</v>
@@ -4137,15 +4833,18 @@
         <v>6137</v>
       </c>
       <c r="D180" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E180" s="2">
         <v>44951</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>2023</v>
@@ -4154,15 +4853,18 @@
         <v>128134</v>
       </c>
       <c r="D181" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E181" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>235</v>
+      </c>
+      <c r="F181" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B182">
         <v>2023</v>
@@ -4171,15 +4873,18 @@
         <v>461390</v>
       </c>
       <c r="D182" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E182" s="2">
         <v>44952</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B183">
         <v>2023</v>
@@ -4188,15 +4893,18 @@
         <v>32723</v>
       </c>
       <c r="D183" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E183" s="2">
         <v>44956</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B184">
         <v>2023</v>
@@ -4205,15 +4913,18 @@
         <v>179010</v>
       </c>
       <c r="D184" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E184" s="2">
         <v>44972</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B185">
         <v>2023</v>
@@ -4222,15 +4933,18 @@
         <v>207498.12</v>
       </c>
       <c r="D185" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E185" s="2">
         <v>44978</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B186">
         <v>2023</v>
@@ -4239,15 +4953,18 @@
         <v>99798</v>
       </c>
       <c r="D186" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E186" s="2">
         <v>44979</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B187">
         <v>2023</v>
@@ -4256,15 +4973,18 @@
         <v>6564</v>
       </c>
       <c r="D187" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E187" s="2">
         <v>44979</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B188">
         <v>2023</v>
@@ -4273,15 +4993,18 @@
         <v>303998.52</v>
       </c>
       <c r="D188" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E188" s="2">
         <v>44984</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B189">
         <v>2023</v>
@@ -4290,15 +5013,18 @@
         <v>160611</v>
       </c>
       <c r="D189" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E189" s="2">
         <v>45014</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B190">
         <v>2023</v>
@@ -4307,15 +5033,18 @@
         <v>58165</v>
       </c>
       <c r="D190" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E190" s="2">
         <v>45009</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B191">
         <v>2023</v>
@@ -4324,15 +5053,18 @@
         <v>74171</v>
       </c>
       <c r="D191" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E191" s="2">
         <v>45015</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B192">
         <v>2023</v>
@@ -4341,15 +5073,18 @@
         <v>4513</v>
       </c>
       <c r="D192" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E192" s="2">
         <v>45027</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B193">
         <v>2023</v>
@@ -4358,15 +5093,18 @@
         <v>132194</v>
       </c>
       <c r="D193" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E193" s="2">
         <v>45035</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B194">
         <v>2023</v>
@@ -4375,15 +5113,18 @@
         <v>71414.8</v>
       </c>
       <c r="D194" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E194" s="2">
         <v>45029</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B195">
         <v>2023</v>
@@ -4392,15 +5133,18 @@
         <v>32046.79</v>
       </c>
       <c r="D195" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E195" s="2">
         <v>45043</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B196">
         <v>2023</v>
@@ -4409,15 +5153,18 @@
         <v>110646</v>
       </c>
       <c r="D196" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E196" s="2">
         <v>45047</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B197">
         <v>2023</v>
@@ -4426,15 +5173,18 @@
         <v>71077.63</v>
       </c>
       <c r="D197" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E197" s="2">
         <v>45047</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B198">
         <v>2023</v>
@@ -4443,15 +5193,18 @@
         <v>18378</v>
       </c>
       <c r="D198" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E198" s="2">
         <v>45048</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B199">
         <v>2023</v>
@@ -4460,15 +5213,18 @@
         <v>171628</v>
       </c>
       <c r="D199" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E199" s="2">
         <v>45043</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B200">
         <v>2023</v>
@@ -4477,15 +5233,18 @@
         <v>303577</v>
       </c>
       <c r="D200" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E200" s="2">
         <v>45020</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B201">
         <v>2023</v>
@@ -4494,15 +5253,18 @@
         <v>6277</v>
       </c>
       <c r="D201" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E201" s="2">
         <v>45048</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B202">
         <v>2023</v>
@@ -4511,15 +5273,18 @@
         <v>125865</v>
       </c>
       <c r="D202" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E202" s="2">
         <v>45044</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B203">
         <v>2023</v>
@@ -4528,15 +5293,18 @@
         <v>236370</v>
       </c>
       <c r="D203" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E203" s="2">
         <v>45043</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B204">
         <v>2023</v>
@@ -4545,15 +5313,18 @@
         <v>140432</v>
       </c>
       <c r="D204" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E204" s="2">
         <v>45061</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B205">
         <v>2023</v>
@@ -4562,15 +5333,18 @@
         <v>30453</v>
       </c>
       <c r="D205" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E205" s="2">
         <v>45070</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B206">
         <v>2023</v>
@@ -4579,15 +5353,18 @@
         <v>104340</v>
       </c>
       <c r="D206" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E206" s="2">
         <v>45070</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B207">
         <v>2023</v>
@@ -4596,15 +5373,18 @@
         <v>76044</v>
       </c>
       <c r="D207" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E207" s="2">
         <v>45072</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B208">
         <v>2023</v>
@@ -4613,15 +5393,18 @@
         <v>57600</v>
       </c>
       <c r="D208" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E208" s="2">
         <v>45072</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B209">
         <v>2023</v>
@@ -4630,10 +5413,13 @@
         <v>80135</v>
       </c>
       <c r="D209" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E209" s="2">
         <v>45076</v>
+      </c>
+      <c r="F209" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/AllYearsMerged.xlsx
+++ b/AllYearsMerged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="298">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>28870515</t>
   </si>
   <si>
@@ -634,6 +637,78 @@
     <t>34082200</t>
   </si>
   <si>
+    <t>10750113</t>
+  </si>
+  <si>
+    <t>55164711</t>
+  </si>
+  <si>
+    <t>17089234</t>
+  </si>
+  <si>
+    <t>68964415</t>
+  </si>
+  <si>
+    <t>14336796</t>
+  </si>
+  <si>
+    <t>14194711</t>
+  </si>
+  <si>
+    <t>26688205</t>
+  </si>
+  <si>
+    <t>30715993</t>
+  </si>
+  <si>
+    <t>38618873</t>
+  </si>
+  <si>
+    <t>26259495</t>
+  </si>
+  <si>
+    <t>11967086</t>
+  </si>
+  <si>
+    <t>20039701</t>
+  </si>
+  <si>
+    <t>21367087</t>
+  </si>
+  <si>
+    <t>23410915</t>
+  </si>
+  <si>
+    <t>33372477</t>
+  </si>
+  <si>
+    <t>24255298</t>
+  </si>
+  <si>
+    <t>36934085</t>
+  </si>
+  <si>
+    <t>25086589</t>
+  </si>
+  <si>
+    <t>27276407</t>
+  </si>
+  <si>
+    <t>87719715</t>
+  </si>
+  <si>
+    <t>38283715</t>
+  </si>
+  <si>
+    <t>83090413</t>
+  </si>
+  <si>
+    <t>29975884</t>
+  </si>
+  <si>
+    <t>35480919</t>
+  </si>
+  <si>
     <t>Visma Expense</t>
   </si>
   <si>
@@ -721,7 +796,16 @@
     <t>Visma Løn (Fehmarn Belt Contractors I/S)</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Acubiz</t>
+  </si>
+  <si>
+    <t>Automatisk Import</t>
+  </si>
+  <si>
+    <t>SKL SE</t>
+  </si>
+  <si>
+    <t>BPO, Løn og HR</t>
   </si>
   <si>
     <t>Anden årsag (angiv hvilken i bemærkninger)</t>
@@ -766,9 +850,6 @@
     <t>Konkurs</t>
   </si>
   <si>
-    <t>Insourcing af lønnen (anden leverandør)</t>
-  </si>
-  <si>
     <t>DataLøn</t>
   </si>
   <si>
@@ -791,6 +872,42 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>Jobindex</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
   </si>
 </sst>
 </file>
@@ -1152,13 +1269,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,10 +1297,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -1192,18 +1312,21 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -1212,21 +1335,24 @@
         <v>77346.97</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E3" s="2">
         <v>44208</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -1235,18 +1361,21 @@
         <v>52126.72</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E4" s="2">
         <v>44209</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -1255,18 +1384,21 @@
         <v>13053.78</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E5" s="2">
         <v>44224</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -1275,18 +1407,21 @@
         <v>28895.99</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E6" s="2">
         <v>44202</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -1295,18 +1430,21 @@
         <v>36113.01</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E7" s="2">
         <v>44218</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -1315,21 +1453,24 @@
         <v>50524.99</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E8" s="2">
         <v>44217</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>279</v>
+      </c>
+      <c r="H8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -1338,21 +1479,24 @@
         <v>39790.38</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E9" s="2">
         <v>44228</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -1361,21 +1505,24 @@
         <v>59748.16</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E10" s="2">
         <v>44229</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="H10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -1384,21 +1531,24 @@
         <v>20969.32</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E11" s="2">
         <v>44267</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -1407,18 +1557,21 @@
         <v>26744.54</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E12" s="2">
         <v>44260</v>
       </c>
       <c r="F12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -1427,18 +1580,21 @@
         <v>159260.11</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E13" s="2">
         <v>44265</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="H13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -1447,18 +1603,21 @@
         <v>15000</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E14" s="2">
         <v>44267</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="H14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -1467,18 +1626,21 @@
         <v>180204.78</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E15" s="2">
         <v>44259</v>
       </c>
       <c r="F15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -1487,21 +1649,24 @@
         <v>17060.16</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E16" s="2">
         <v>44279</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>281</v>
+      </c>
+      <c r="H16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>2021</v>
@@ -1510,18 +1675,21 @@
         <v>48008.41</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E17" s="2">
         <v>44279</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2021</v>
@@ -1530,21 +1698,24 @@
         <v>14114.21</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E18" s="2">
         <v>44293</v>
       </c>
       <c r="F18" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="H18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>2021</v>
@@ -1553,18 +1724,21 @@
         <v>12344.44</v>
       </c>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E19" s="2">
         <v>44285</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2021</v>
@@ -1573,18 +1747,21 @@
         <v>23323</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E20" s="2">
         <v>44281</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>272</v>
+      </c>
+      <c r="H20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>2021</v>
@@ -1593,18 +1770,21 @@
         <v>143670.95</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E21" s="2">
         <v>44286</v>
       </c>
       <c r="F21" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>2021</v>
@@ -1613,18 +1793,21 @@
         <v>15000</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E22" s="2">
         <v>44300</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="H22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2021</v>
@@ -1633,18 +1816,21 @@
         <v>15563.96</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2">
         <v>44306</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="H23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2021</v>
@@ -1653,18 +1839,21 @@
         <v>42997.07</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E24" s="2">
         <v>44299</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="H24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2021</v>
@@ -1673,18 +1862,21 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E25" s="2">
         <v>44314</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2021</v>
@@ -1693,18 +1885,21 @@
         <v>51618.2</v>
       </c>
       <c r="D26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E26" s="2">
         <v>44315</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H26" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2021</v>
@@ -1713,18 +1908,21 @@
         <v>118122.86</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E27" s="2">
         <v>44315</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>2021</v>
@@ -1733,18 +1931,21 @@
         <v>101094.66</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E28" s="2">
         <v>44314</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>2021</v>
@@ -1753,18 +1954,21 @@
         <v>15511.36</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E29" s="2">
         <v>44326</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="H29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>2021</v>
@@ -1773,18 +1977,21 @@
         <v>144961.24</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E30" s="2">
         <v>44315</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="H30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>2021</v>
@@ -1793,18 +2000,21 @@
         <v>109548</v>
       </c>
       <c r="D31" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E31" s="2">
         <v>44344</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>2021</v>
@@ -1813,18 +2023,21 @@
         <v>19589.49</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E32" s="2">
         <v>44336</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="H32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>2021</v>
@@ -1833,18 +2046,21 @@
         <v>74992</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E33" s="2">
         <v>44347</v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>2021</v>
@@ -1853,18 +2069,21 @@
         <v>109791.88</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E34" s="2">
         <v>44347</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>2021</v>
@@ -1873,18 +2092,21 @@
         <v>24096</v>
       </c>
       <c r="D35" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E35" s="2">
         <v>44350</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="H35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>2021</v>
@@ -1893,18 +2115,21 @@
         <v>32894</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E36" s="2">
         <v>44363</v>
       </c>
       <c r="F36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1913,21 +2138,24 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E37" s="2">
         <v>44348</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>282</v>
+      </c>
+      <c r="H37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>2021</v>
@@ -1936,18 +2164,21 @@
         <v>79410</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E38" s="2">
         <v>44355</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>275</v>
+      </c>
+      <c r="H38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>2021</v>
@@ -1956,18 +2187,21 @@
         <v>51608.6</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E39" s="2">
         <v>44368</v>
       </c>
       <c r="F39" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40">
         <v>2021</v>
@@ -1976,18 +2210,21 @@
         <v>49192.74</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E40" s="2">
         <v>44375</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>2021</v>
@@ -1996,21 +2233,24 @@
         <v>47508</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E41" s="2">
         <v>44376</v>
       </c>
       <c r="F41" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>283</v>
+      </c>
+      <c r="H41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>2021</v>
@@ -2019,18 +2259,21 @@
         <v>32673</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E42" s="2">
         <v>44375</v>
       </c>
       <c r="F42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>2021</v>
@@ -2039,18 +2282,21 @@
         <v>48167</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E43" s="2">
         <v>44376</v>
       </c>
       <c r="F43" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>2021</v>
@@ -2059,18 +2305,21 @@
         <v>98778.67</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E44" s="2">
         <v>44376</v>
       </c>
       <c r="F44" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>2021</v>
@@ -2079,18 +2328,21 @@
         <v>21226.54</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E45" s="2">
         <v>44385</v>
       </c>
       <c r="F45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>2021</v>
@@ -2099,21 +2351,24 @@
         <v>1018113</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E46" s="2">
         <v>44377</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="H46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>2021</v>
@@ -2122,18 +2377,21 @@
         <v>145281</v>
       </c>
       <c r="D47" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E47" s="2">
         <v>44376</v>
       </c>
       <c r="F47" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>2021</v>
@@ -2142,18 +2400,21 @@
         <v>437295</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E48" s="2">
         <v>44354</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>2021</v>
@@ -2162,21 +2423,24 @@
         <v>48600</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E49" s="2">
         <v>44371</v>
       </c>
       <c r="F49" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>284</v>
+      </c>
+      <c r="H49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>2021</v>
@@ -2185,21 +2449,24 @@
         <v>78696</v>
       </c>
       <c r="D50" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E50" s="2">
         <v>44371</v>
       </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>284</v>
+      </c>
+      <c r="H50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>2021</v>
@@ -2208,18 +2475,21 @@
         <v>27360</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="E51" s="2">
         <v>44407</v>
       </c>
       <c r="F51" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>2021</v>
@@ -2228,18 +2498,21 @@
         <v>54307</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E52" s="2">
         <v>44382</v>
       </c>
       <c r="F52" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H52" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>2021</v>
@@ -2248,18 +2521,21 @@
         <v>18049.5</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E53" s="2">
         <v>44410</v>
       </c>
       <c r="F53" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H53" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>2021</v>
@@ -2268,21 +2544,24 @@
         <v>426000</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E54" s="2">
         <v>44374</v>
       </c>
       <c r="F54" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G54" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="H54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>2021</v>
@@ -2291,18 +2570,21 @@
         <v>96164</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E55" s="2">
         <v>44438</v>
       </c>
       <c r="F55" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H55" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>2021</v>
@@ -2311,21 +2593,24 @@
         <v>21660</v>
       </c>
       <c r="D56" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E56" s="2">
         <v>44440</v>
       </c>
       <c r="F56" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G56" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>2021</v>
@@ -2334,18 +2619,21 @@
         <v>164796</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E57" s="2">
         <v>44432</v>
       </c>
       <c r="F57" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H57" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>2021</v>
@@ -2354,18 +2642,21 @@
         <v>226636</v>
       </c>
       <c r="D58" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E58" s="2">
         <v>44439</v>
       </c>
       <c r="F58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>2021</v>
@@ -2374,18 +2665,21 @@
         <v>117341</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E59" s="2">
         <v>44462</v>
       </c>
       <c r="F59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>2021</v>
@@ -2394,18 +2688,21 @@
         <v>150297</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E60" s="2">
         <v>44461</v>
       </c>
       <c r="F60" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>2021</v>
@@ -2414,18 +2711,21 @@
         <v>25140.84</v>
       </c>
       <c r="D61" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E61" s="2">
         <v>44463</v>
       </c>
       <c r="F61" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H61" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>2021</v>
@@ -2434,18 +2734,21 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E62" s="2">
         <v>44463</v>
       </c>
       <c r="F62" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>2021</v>
@@ -2454,18 +2757,21 @@
         <v>30000</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E63" s="2">
         <v>44454</v>
       </c>
       <c r="F63" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>2021</v>
@@ -2474,18 +2780,21 @@
         <v>72674.92</v>
       </c>
       <c r="D64" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E64" s="2">
         <v>44469</v>
       </c>
       <c r="F64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>2021</v>
@@ -2494,18 +2803,21 @@
         <v>158752.08</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E65" s="2">
         <v>44483</v>
       </c>
       <c r="F65" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>2021</v>
@@ -2514,18 +2826,21 @@
         <v>36348</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E66" s="2">
         <v>44463</v>
       </c>
       <c r="F66" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>2021</v>
@@ -2534,18 +2849,21 @@
         <v>17258.07</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E67" s="2">
         <v>44489</v>
       </c>
       <c r="F67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H67" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>2021</v>
@@ -2554,18 +2872,21 @@
         <v>36000</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E68" s="2">
         <v>44438</v>
       </c>
       <c r="F68" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H68" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>2021</v>
@@ -2574,21 +2895,24 @@
         <v>321844</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E69" s="2">
         <v>44438</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="H69" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>2021</v>
@@ -2597,18 +2921,21 @@
         <v>30320</v>
       </c>
       <c r="D70" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E70" s="2">
         <v>44483</v>
       </c>
       <c r="F70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>2021</v>
@@ -2617,21 +2944,24 @@
         <v>61133.08</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E71" s="2">
         <v>44498</v>
       </c>
       <c r="F71" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G71" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H71" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>2021</v>
@@ -2640,18 +2970,21 @@
         <v>11524</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="E72" s="2">
         <v>44503</v>
       </c>
       <c r="F72" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="H72" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>2021</v>
@@ -2660,18 +2993,21 @@
         <v>35463.96</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E73" s="2">
         <v>44498</v>
       </c>
       <c r="F73" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H73" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>2021</v>
@@ -2680,18 +3016,21 @@
         <v>123014.81</v>
       </c>
       <c r="D74" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E74" s="2">
         <v>44518</v>
       </c>
       <c r="F74" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>2021</v>
@@ -2700,18 +3039,21 @@
         <v>97596.27</v>
       </c>
       <c r="D75" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E75" s="2">
         <v>44515</v>
       </c>
       <c r="F75" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>2021</v>
@@ -2720,18 +3062,21 @@
         <v>18103.47</v>
       </c>
       <c r="D76" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E76" s="2">
         <v>44523</v>
       </c>
       <c r="F76" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H76" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>2021</v>
@@ -2740,21 +3085,24 @@
         <v>21375.84</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="E77" s="2">
         <v>44505</v>
       </c>
       <c r="F77" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G77" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H77" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>2021</v>
@@ -2763,18 +3111,21 @@
         <v>77675.48</v>
       </c>
       <c r="D78" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E78" s="2">
         <v>44498</v>
       </c>
       <c r="F78" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H78" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>2021</v>
@@ -2783,18 +3134,21 @@
         <v>137845</v>
       </c>
       <c r="D79" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E79" s="2">
         <v>44448</v>
       </c>
       <c r="F79" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H79" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>2021</v>
@@ -2803,18 +3157,21 @@
         <v>387640</v>
       </c>
       <c r="D80" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E80" s="2">
         <v>44467</v>
       </c>
       <c r="F80" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H80" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>2021</v>
@@ -2823,18 +3180,21 @@
         <v>65365</v>
       </c>
       <c r="D81" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E81" s="2">
         <v>44530</v>
       </c>
       <c r="F81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H81" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>2021</v>
@@ -2843,18 +3203,21 @@
         <v>59696</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E82" s="2">
         <v>44531</v>
       </c>
       <c r="F82" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H82" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>2021</v>
@@ -2863,18 +3226,21 @@
         <v>33761</v>
       </c>
       <c r="D83" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E83" s="2">
         <v>44545</v>
       </c>
       <c r="G83" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H83" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>2021</v>
@@ -2883,18 +3249,21 @@
         <v>33034</v>
       </c>
       <c r="D84" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E84" s="2">
         <v>44498</v>
       </c>
       <c r="F84" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H84" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>2021</v>
@@ -2903,18 +3272,21 @@
         <v>162281</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E85" s="2">
         <v>44530</v>
       </c>
       <c r="F85" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H85" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>2021</v>
@@ -2923,18 +3295,21 @@
         <v>22438</v>
       </c>
       <c r="D86" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E86" s="2">
         <v>44546</v>
       </c>
       <c r="F86" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87">
         <v>2021</v>
@@ -2943,18 +3318,21 @@
         <v>18120</v>
       </c>
       <c r="D87" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="E87" s="2">
         <v>44498</v>
       </c>
       <c r="F87" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H87" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>2021</v>
@@ -2963,18 +3341,21 @@
         <v>37004</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E88" s="2">
         <v>44550</v>
       </c>
       <c r="F88" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H88" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>2021</v>
@@ -2983,18 +3364,21 @@
         <v>55692.36</v>
       </c>
       <c r="D89" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E89" s="2">
         <v>44540</v>
       </c>
       <c r="F89" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B90">
         <v>2021</v>
@@ -3003,18 +3387,21 @@
         <v>58860</v>
       </c>
       <c r="D90" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E90" s="2">
         <v>44553</v>
       </c>
       <c r="F90" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H90" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B91">
         <v>2021</v>
@@ -3023,18 +3410,21 @@
         <v>1724952</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="E91" s="2">
         <v>44494</v>
       </c>
       <c r="F91" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B92">
         <v>2021</v>
@@ -3043,18 +3433,21 @@
         <v>156000</v>
       </c>
       <c r="D92" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="E92" s="2">
         <v>44466</v>
       </c>
       <c r="F92" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>277</v>
+      </c>
+      <c r="H92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>2022</v>
@@ -3063,18 +3456,21 @@
         <v>1783320</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E93" s="2">
         <v>44557</v>
       </c>
       <c r="F93" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>2022</v>
@@ -3083,21 +3479,24 @@
         <v>44529.04</v>
       </c>
       <c r="D94" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E94" s="2">
         <v>44583</v>
       </c>
       <c r="F94" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G94" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>285</v>
+      </c>
+      <c r="H94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>2022</v>
@@ -3106,18 +3505,21 @@
         <v>195393.13</v>
       </c>
       <c r="D95" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E95" s="2">
         <v>44587</v>
       </c>
       <c r="F95" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="H95" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>2022</v>
@@ -3126,18 +3528,21 @@
         <v>16357.92</v>
       </c>
       <c r="D96" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E96" s="2">
         <v>44589</v>
       </c>
       <c r="F96" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H96" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>2022</v>
@@ -3146,21 +3551,24 @@
         <v>86395.57000000001</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E97" s="2">
         <v>44592</v>
       </c>
       <c r="F97" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G97" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>282</v>
+      </c>
+      <c r="H97" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>2022</v>
@@ -3169,18 +3577,21 @@
         <v>65843.74000000001</v>
       </c>
       <c r="D98" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E98" s="2">
         <v>44592</v>
       </c>
       <c r="F98" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="H98" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>2022</v>
@@ -3189,18 +3600,21 @@
         <v>44071.91</v>
       </c>
       <c r="D99" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E99" s="2">
         <v>44593</v>
       </c>
       <c r="F99" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H99" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>2022</v>
@@ -3209,18 +3623,21 @@
         <v>18108</v>
       </c>
       <c r="D100" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E100" s="2">
         <v>44594</v>
       </c>
       <c r="F100" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H100" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101">
         <v>2022</v>
@@ -3229,18 +3646,21 @@
         <v>123510</v>
       </c>
       <c r="D101" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E101" s="2">
         <v>44594</v>
       </c>
       <c r="F101" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>2022</v>
@@ -3249,18 +3669,21 @@
         <v>32379.56</v>
       </c>
       <c r="D102" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E102" s="2">
         <v>44599</v>
       </c>
       <c r="F102" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>2022</v>
@@ -3269,21 +3692,24 @@
         <v>2206300</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E103" s="2">
         <v>44599</v>
       </c>
       <c r="F103" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="G103" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="H103" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>2022</v>
@@ -3292,18 +3718,21 @@
         <v>59444.88</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E104" s="2">
         <v>44600</v>
       </c>
       <c r="F104" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105">
         <v>2022</v>
@@ -3312,18 +3741,21 @@
         <v>27046.56</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E105" s="2">
         <v>44601</v>
       </c>
       <c r="F105" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106">
         <v>2022</v>
@@ -3332,18 +3764,21 @@
         <v>78090</v>
       </c>
       <c r="D106" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E106" s="2">
         <v>44602</v>
       </c>
       <c r="F106" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H106" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>2022</v>
@@ -3352,18 +3787,21 @@
         <v>131316</v>
       </c>
       <c r="D107" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E107" s="2">
         <v>44609</v>
       </c>
       <c r="F107" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H107" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>2022</v>
@@ -3372,18 +3810,21 @@
         <v>26775.27</v>
       </c>
       <c r="D108" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E108" s="2">
         <v>44609</v>
       </c>
       <c r="F108" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B109">
         <v>2022</v>
@@ -3392,18 +3833,21 @@
         <v>21714.47</v>
       </c>
       <c r="D109" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E109" s="2">
         <v>44615</v>
       </c>
       <c r="F109" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H109" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B110">
         <v>2022</v>
@@ -3412,18 +3856,21 @@
         <v>284992.08</v>
       </c>
       <c r="D110" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E110" s="2">
         <v>44615</v>
       </c>
       <c r="F110" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H110" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>2022</v>
@@ -3432,18 +3879,21 @@
         <v>79981.99000000001</v>
       </c>
       <c r="D111" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E111" s="2">
         <v>44617</v>
       </c>
       <c r="F111" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H111" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112">
         <v>2022</v>
@@ -3452,18 +3902,21 @@
         <v>73747</v>
       </c>
       <c r="D112" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E112" s="2">
         <v>44617</v>
       </c>
       <c r="F112" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H112" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113">
         <v>2022</v>
@@ -3472,18 +3925,21 @@
         <v>154056.97</v>
       </c>
       <c r="D113" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E113" s="2">
         <v>44620</v>
       </c>
       <c r="F113" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H113" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114">
         <v>2022</v>
@@ -3492,18 +3948,21 @@
         <v>22255.93</v>
       </c>
       <c r="D114" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E114" s="2">
         <v>44620</v>
       </c>
       <c r="F114" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H114" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115">
         <v>2022</v>
@@ -3512,18 +3971,21 @@
         <v>12087</v>
       </c>
       <c r="D115" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="E115" s="2">
         <v>44620</v>
       </c>
       <c r="F115" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H115" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116">
         <v>2022</v>
@@ -3532,18 +3994,21 @@
         <v>229700</v>
       </c>
       <c r="D116" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E116" s="2">
         <v>44630</v>
       </c>
       <c r="F116" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H116" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117">
         <v>2022</v>
@@ -3552,18 +4017,21 @@
         <v>153000</v>
       </c>
       <c r="D117" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E117" s="2">
         <v>44631</v>
       </c>
       <c r="F117" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="H117" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118">
         <v>2022</v>
@@ -3572,18 +4040,21 @@
         <v>4467</v>
       </c>
       <c r="D118" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E118" s="2">
         <v>44634</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H118" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119">
         <v>2022</v>
@@ -3592,18 +4063,21 @@
         <v>46500</v>
       </c>
       <c r="D119" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E119" s="2">
         <v>44637</v>
       </c>
       <c r="F119" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H119" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120">
         <v>2022</v>
@@ -3612,18 +4086,21 @@
         <v>113561</v>
       </c>
       <c r="D120" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="E120" s="2">
         <v>44643</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H120" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121">
         <v>2022</v>
@@ -3632,18 +4109,21 @@
         <v>50075</v>
       </c>
       <c r="D121" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E121" s="2">
         <v>44645</v>
       </c>
       <c r="F121" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H121" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122">
         <v>2022</v>
@@ -3652,18 +4132,21 @@
         <v>264132</v>
       </c>
       <c r="D122" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E122" s="2">
         <v>44645</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H122" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123">
         <v>2022</v>
@@ -3672,18 +4155,21 @@
         <v>95656.64999999999</v>
       </c>
       <c r="D123" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E123" s="2">
         <v>44649</v>
       </c>
       <c r="F123" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H123" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>2022</v>
@@ -3692,18 +4178,21 @@
         <v>19712.96</v>
       </c>
       <c r="D124" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E124" s="2">
         <v>44649</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H124" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125">
         <v>2022</v>
@@ -3712,18 +4201,21 @@
         <v>5520</v>
       </c>
       <c r="D125" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="E125" s="2">
         <v>44652</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H125" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126">
         <v>2022</v>
@@ -3732,21 +4224,24 @@
         <v>15000</v>
       </c>
       <c r="D126" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E126" s="2">
         <v>44655</v>
       </c>
       <c r="F126" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G126" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H126" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127">
         <v>2022</v>
@@ -3755,18 +4250,21 @@
         <v>44929.04</v>
       </c>
       <c r="D127" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E127" s="2">
         <v>44655</v>
       </c>
       <c r="F127" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H127" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128">
         <v>2022</v>
@@ -3775,18 +4273,21 @@
         <v>2164926</v>
       </c>
       <c r="D128" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E128" s="2">
         <v>44656</v>
       </c>
       <c r="F128" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H128" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129">
         <v>2022</v>
@@ -3795,18 +4296,21 @@
         <v>5500</v>
       </c>
       <c r="D129" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="E129" s="2">
         <v>44672</v>
       </c>
       <c r="F129" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H129" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130">
         <v>2022</v>
@@ -3815,18 +4319,21 @@
         <v>80534</v>
       </c>
       <c r="D130" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E130" s="2">
         <v>44681</v>
       </c>
       <c r="F130" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>269</v>
+      </c>
+      <c r="H130" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131">
         <v>2022</v>
@@ -3835,18 +4342,21 @@
         <v>58657</v>
       </c>
       <c r="D131" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="E131" s="2">
         <v>44685</v>
       </c>
       <c r="F131" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H131" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132">
         <v>2022</v>
@@ -3855,18 +4365,21 @@
         <v>259880</v>
       </c>
       <c r="D132" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="E132" s="2">
         <v>44692</v>
       </c>
       <c r="F132" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H132" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133">
         <v>2022</v>
@@ -3875,18 +4388,21 @@
         <v>44851</v>
       </c>
       <c r="D133" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="E133" s="2">
         <v>44719</v>
       </c>
       <c r="F133" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H133" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134">
         <v>2022</v>
@@ -3895,18 +4411,21 @@
         <v>15000</v>
       </c>
       <c r="D134" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E134" s="2">
         <v>44719</v>
       </c>
       <c r="F134" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H134" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135">
         <v>2022</v>
@@ -3915,18 +4434,21 @@
         <v>36000</v>
       </c>
       <c r="D135" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E135" s="2">
         <v>44732</v>
       </c>
       <c r="F135" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H135" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136">
         <v>2022</v>
@@ -3935,18 +4457,21 @@
         <v>85765.3</v>
       </c>
       <c r="D136" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E136" s="2">
         <v>44736</v>
       </c>
       <c r="F136" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H136" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137">
         <v>2022</v>
@@ -3955,18 +4480,21 @@
         <v>41918.41</v>
       </c>
       <c r="D137" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E137" s="2">
         <v>44742</v>
       </c>
       <c r="F137" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H137" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138">
         <v>2022</v>
@@ -3975,18 +4503,21 @@
         <v>141922</v>
       </c>
       <c r="D138" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E138" s="2">
         <v>44742</v>
       </c>
       <c r="F138" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H138" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139">
         <v>2022</v>
@@ -3995,18 +4526,21 @@
         <v>36000</v>
       </c>
       <c r="D139" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E139" s="2">
         <v>44742</v>
       </c>
       <c r="F139" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H139" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140">
         <v>2022</v>
@@ -4015,18 +4549,21 @@
         <v>53378.16</v>
       </c>
       <c r="D140" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E140" s="2">
         <v>44749</v>
       </c>
       <c r="F140" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H140" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141">
         <v>2022</v>
@@ -4035,18 +4572,21 @@
         <v>40191.95</v>
       </c>
       <c r="D141" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E141" s="2">
         <v>44753</v>
       </c>
       <c r="F141" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H141" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142">
         <v>2022</v>
@@ -4055,21 +4595,24 @@
         <v>33339.71</v>
       </c>
       <c r="D142" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E142" s="2">
         <v>44774</v>
       </c>
       <c r="F142" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G142" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H142" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143">
         <v>2022</v>
@@ -4078,18 +4621,21 @@
         <v>12000</v>
       </c>
       <c r="D143" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E143" s="2">
         <v>44775</v>
       </c>
       <c r="F143" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H143" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144">
         <v>2022</v>
@@ -4098,18 +4644,21 @@
         <v>142246</v>
       </c>
       <c r="D144" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E144" s="2">
         <v>44783</v>
       </c>
       <c r="F144" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H144" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B145">
         <v>2022</v>
@@ -4118,18 +4667,21 @@
         <v>57060</v>
       </c>
       <c r="D145" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="E145" s="2">
         <v>44784</v>
       </c>
       <c r="F145" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>270</v>
+      </c>
+      <c r="H145" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146">
         <v>2022</v>
@@ -4138,18 +4690,21 @@
         <v>24581</v>
       </c>
       <c r="D146" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E146" s="2">
         <v>44810</v>
       </c>
       <c r="F146" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H146" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B147">
         <v>2022</v>
@@ -4158,18 +4713,21 @@
         <v>61008</v>
       </c>
       <c r="D147" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E147" s="2">
         <v>44811</v>
       </c>
       <c r="F147" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148">
         <v>2022</v>
@@ -4178,18 +4736,21 @@
         <v>108824</v>
       </c>
       <c r="D148" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E148" s="2">
         <v>44816</v>
       </c>
       <c r="F148" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H148" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149">
         <v>2022</v>
@@ -4198,18 +4759,21 @@
         <v>18449</v>
       </c>
       <c r="D149" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E149" s="2">
         <v>44820</v>
       </c>
       <c r="F149" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150">
         <v>2022</v>
@@ -4218,18 +4782,15 @@
         <v>9000</v>
       </c>
       <c r="D150" t="s">
-        <v>227</v>
-      </c>
-      <c r="E150" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F150" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151">
         <v>2022</v>
@@ -4238,18 +4799,21 @@
         <v>31068</v>
       </c>
       <c r="D151" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E151" s="2">
         <v>44831</v>
       </c>
       <c r="F151" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H151" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152">
         <v>2022</v>
@@ -4258,18 +4822,21 @@
         <v>48312</v>
       </c>
       <c r="D152" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E152" s="2">
         <v>44833</v>
       </c>
       <c r="F152" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H152" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153">
         <v>2022</v>
@@ -4278,18 +4845,21 @@
         <v>310116</v>
       </c>
       <c r="D153" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E153" s="2">
         <v>44823</v>
       </c>
       <c r="F153" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="H153" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154">
         <v>2022</v>
@@ -4298,21 +4868,24 @@
         <v>145870</v>
       </c>
       <c r="D154" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E154" s="2">
         <v>44834</v>
       </c>
       <c r="F154" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G154" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H154" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155">
         <v>2022</v>
@@ -4321,18 +4894,21 @@
         <v>61182</v>
       </c>
       <c r="D155" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E155" s="2">
         <v>44858</v>
       </c>
       <c r="F155" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H155" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156">
         <v>2022</v>
@@ -4341,18 +4917,21 @@
         <v>564456</v>
       </c>
       <c r="D156" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E156" s="2">
         <v>44834</v>
       </c>
       <c r="F156" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>274</v>
+      </c>
+      <c r="H156" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B157">
         <v>2022</v>
@@ -4361,18 +4940,21 @@
         <v>15360</v>
       </c>
       <c r="D157" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E157" s="2">
         <v>44852</v>
       </c>
       <c r="F157" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H157" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B158">
         <v>2022</v>
@@ -4381,18 +4963,21 @@
         <v>17098</v>
       </c>
       <c r="D158" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E158" s="2">
         <v>44861</v>
       </c>
       <c r="F158" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H158" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159">
         <v>2022</v>
@@ -4401,18 +4986,21 @@
         <v>47117</v>
       </c>
       <c r="D159" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E159" s="2">
         <v>44862</v>
       </c>
       <c r="F159" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H159" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B160">
         <v>2022</v>
@@ -4421,18 +5009,21 @@
         <v>71046</v>
       </c>
       <c r="D160" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E160" s="2">
         <v>44865</v>
       </c>
       <c r="F160" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H160" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161">
         <v>2022</v>
@@ -4441,18 +5032,21 @@
         <v>16796</v>
       </c>
       <c r="D161" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="E161" s="2">
         <v>44865</v>
       </c>
       <c r="F161" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>276</v>
+      </c>
+      <c r="H161" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162">
         <v>2022</v>
@@ -4461,18 +5055,21 @@
         <v>30806</v>
       </c>
       <c r="D162" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E162" s="2">
         <v>44868</v>
       </c>
       <c r="F162" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H162" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163">
         <v>2022</v>
@@ -4481,18 +5078,21 @@
         <v>42583</v>
       </c>
       <c r="D163" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E163" s="2">
         <v>44872</v>
       </c>
       <c r="F163" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H163" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164">
         <v>2022</v>
@@ -4501,18 +5101,21 @@
         <v>15000</v>
       </c>
       <c r="D164" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E164" s="2">
         <v>44837</v>
       </c>
       <c r="F164" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>266</v>
+      </c>
+      <c r="H164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165">
         <v>2022</v>
@@ -4521,18 +5124,21 @@
         <v>20172</v>
       </c>
       <c r="D165" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E165" s="2">
         <v>44873</v>
       </c>
       <c r="F165" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>271</v>
+      </c>
+      <c r="H165" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B166">
         <v>2022</v>
@@ -4541,21 +5147,24 @@
         <v>1033505</v>
       </c>
       <c r="D166" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E166" s="2">
         <v>44891</v>
       </c>
       <c r="F166" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="G166" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>284</v>
+      </c>
+      <c r="H166" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167">
         <v>2022</v>
@@ -4564,21 +5173,24 @@
         <v>101508</v>
       </c>
       <c r="D167" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E167" s="2">
         <v>44875</v>
       </c>
       <c r="F167" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G167" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H167" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B168">
         <v>2022</v>
@@ -4587,18 +5199,21 @@
         <v>289659</v>
       </c>
       <c r="D168" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E168" s="2">
         <v>44890</v>
       </c>
       <c r="F168" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H168" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B169">
         <v>2022</v>
@@ -4607,18 +5222,21 @@
         <v>44550</v>
       </c>
       <c r="D169" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E169" s="2">
         <v>44894</v>
       </c>
       <c r="F169" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H169" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B170">
         <v>2022</v>
@@ -4627,18 +5245,21 @@
         <v>50482.04</v>
       </c>
       <c r="D170" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="E170" s="2">
         <v>44831</v>
       </c>
       <c r="F170" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H170" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B171">
         <v>2022</v>
@@ -4647,18 +5268,21 @@
         <v>186313</v>
       </c>
       <c r="D171" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E171" s="2">
         <v>44895</v>
       </c>
       <c r="F171" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H171" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>2022</v>
@@ -4667,18 +5291,21 @@
         <v>3432</v>
       </c>
       <c r="D172" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="E172" s="2">
         <v>44895</v>
       </c>
       <c r="F172" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H172" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>2022</v>
@@ -4687,18 +5314,21 @@
         <v>24000</v>
       </c>
       <c r="D173" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="E173" s="2">
         <v>44895</v>
       </c>
       <c r="F173" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>273</v>
+      </c>
+      <c r="H173" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>2022</v>
@@ -4707,18 +5337,21 @@
         <v>6072</v>
       </c>
       <c r="D174" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E174" s="2">
         <v>44915</v>
       </c>
       <c r="F174" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>268</v>
+      </c>
+      <c r="H174" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>2022</v>
@@ -4727,21 +5360,24 @@
         <v>90042.39999999999</v>
       </c>
       <c r="D175" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E175" s="2">
         <v>44916</v>
       </c>
       <c r="F175" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="G175" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>284</v>
+      </c>
+      <c r="H175" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>2023</v>
@@ -4750,18 +5386,18 @@
         <v>4512</v>
       </c>
       <c r="D176" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E176" s="2">
         <v>44928</v>
       </c>
-      <c r="F176" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>2023</v>
@@ -4770,21 +5406,21 @@
         <v>52852.17</v>
       </c>
       <c r="D177" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E177" s="2">
         <v>44936</v>
       </c>
-      <c r="F177" t="s">
-        <v>240</v>
-      </c>
       <c r="G177" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H177" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>2023</v>
@@ -4793,18 +5429,18 @@
         <v>150188</v>
       </c>
       <c r="D178" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E178" s="2">
         <v>44939</v>
       </c>
-      <c r="F178" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>2023</v>
@@ -4813,18 +5449,18 @@
         <v>199392.4</v>
       </c>
       <c r="D179" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E179" s="2">
         <v>44950</v>
       </c>
-      <c r="F179" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>2023</v>
@@ -4833,18 +5469,18 @@
         <v>6137</v>
       </c>
       <c r="D180" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E180" s="2">
         <v>44951</v>
       </c>
-      <c r="F180" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="H180" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>2023</v>
@@ -4853,18 +5489,12 @@
         <v>128134</v>
       </c>
       <c r="D181" t="s">
-        <v>212</v>
-      </c>
-      <c r="E181" t="s">
-        <v>235</v>
-      </c>
-      <c r="F181" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>2023</v>
@@ -4873,18 +5503,18 @@
         <v>461390</v>
       </c>
       <c r="D182" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E182" s="2">
         <v>44952</v>
       </c>
-      <c r="F182" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>2023</v>
@@ -4893,18 +5523,18 @@
         <v>32723</v>
       </c>
       <c r="D183" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E183" s="2">
         <v>44956</v>
       </c>
-      <c r="F183" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="H183" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>2023</v>
@@ -4913,18 +5543,18 @@
         <v>179010</v>
       </c>
       <c r="D184" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E184" s="2">
         <v>44972</v>
       </c>
-      <c r="F184" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>2023</v>
@@ -4933,18 +5563,18 @@
         <v>207498.12</v>
       </c>
       <c r="D185" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E185" s="2">
         <v>44978</v>
       </c>
-      <c r="F185" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>2023</v>
@@ -4953,18 +5583,18 @@
         <v>99798</v>
       </c>
       <c r="D186" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="E186" s="2">
         <v>44979</v>
       </c>
-      <c r="F186" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>2023</v>
@@ -4973,18 +5603,18 @@
         <v>6564</v>
       </c>
       <c r="D187" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E187" s="2">
         <v>44979</v>
       </c>
-      <c r="F187" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>2023</v>
@@ -4993,18 +5623,18 @@
         <v>303998.52</v>
       </c>
       <c r="D188" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E188" s="2">
         <v>44984</v>
       </c>
-      <c r="F188" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>2023</v>
@@ -5013,18 +5643,18 @@
         <v>160611</v>
       </c>
       <c r="D189" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E189" s="2">
         <v>45014</v>
       </c>
-      <c r="F189" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="H189" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>2023</v>
@@ -5033,18 +5663,18 @@
         <v>58165</v>
       </c>
       <c r="D190" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E190" s="2">
         <v>45009</v>
       </c>
-      <c r="F190" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191">
         <v>2023</v>
@@ -5053,18 +5683,18 @@
         <v>74171</v>
       </c>
       <c r="D191" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E191" s="2">
         <v>45015</v>
       </c>
-      <c r="F191" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="H191" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>2023</v>
@@ -5073,18 +5703,18 @@
         <v>4513</v>
       </c>
       <c r="D192" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E192" s="2">
         <v>45027</v>
       </c>
-      <c r="F192" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="H192" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193">
         <v>2023</v>
@@ -5093,18 +5723,18 @@
         <v>132194</v>
       </c>
       <c r="D193" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E193" s="2">
         <v>45035</v>
       </c>
-      <c r="F193" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="H193" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194">
         <v>2023</v>
@@ -5113,18 +5743,18 @@
         <v>71414.8</v>
       </c>
       <c r="D194" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="E194" s="2">
         <v>45029</v>
       </c>
-      <c r="F194" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="H194" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>2023</v>
@@ -5133,18 +5763,18 @@
         <v>32046.79</v>
       </c>
       <c r="D195" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E195" s="2">
         <v>45043</v>
       </c>
-      <c r="F195" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="H195" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>2023</v>
@@ -5153,18 +5783,18 @@
         <v>110646</v>
       </c>
       <c r="D196" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E196" s="2">
         <v>45047</v>
       </c>
-      <c r="F196" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="H196" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197">
         <v>2023</v>
@@ -5173,18 +5803,18 @@
         <v>71077.63</v>
       </c>
       <c r="D197" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E197" s="2">
         <v>45047</v>
       </c>
-      <c r="F197" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="H197" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198">
         <v>2023</v>
@@ -5193,18 +5823,18 @@
         <v>18378</v>
       </c>
       <c r="D198" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="E198" s="2">
         <v>45048</v>
       </c>
-      <c r="F198" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="H198" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199">
         <v>2023</v>
@@ -5213,18 +5843,18 @@
         <v>171628</v>
       </c>
       <c r="D199" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E199" s="2">
         <v>45043</v>
       </c>
-      <c r="F199" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="H199" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>2023</v>
@@ -5233,18 +5863,18 @@
         <v>303577</v>
       </c>
       <c r="D200" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="E200" s="2">
         <v>45020</v>
       </c>
-      <c r="F200" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="H200" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B201">
         <v>2023</v>
@@ -5253,18 +5883,18 @@
         <v>6277</v>
       </c>
       <c r="D201" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E201" s="2">
         <v>45048</v>
       </c>
-      <c r="F201" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="H201" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B202">
         <v>2023</v>
@@ -5273,18 +5903,18 @@
         <v>125865</v>
       </c>
       <c r="D202" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E202" s="2">
         <v>45044</v>
       </c>
-      <c r="F202" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="H202" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B203">
         <v>2023</v>
@@ -5293,18 +5923,18 @@
         <v>236370</v>
       </c>
       <c r="D203" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E203" s="2">
         <v>45043</v>
       </c>
-      <c r="F203" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="H203" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B204">
         <v>2023</v>
@@ -5313,18 +5943,18 @@
         <v>140432</v>
       </c>
       <c r="D204" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="E204" s="2">
         <v>45061</v>
       </c>
-      <c r="F204" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="H204" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B205">
         <v>2023</v>
@@ -5333,18 +5963,18 @@
         <v>30453</v>
       </c>
       <c r="D205" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E205" s="2">
         <v>45070</v>
       </c>
-      <c r="F205" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="H205" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B206">
         <v>2023</v>
@@ -5353,18 +5983,18 @@
         <v>104340</v>
       </c>
       <c r="D206" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="E206" s="2">
         <v>45070</v>
       </c>
-      <c r="F206" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="H206" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B207">
         <v>2023</v>
@@ -5373,18 +6003,18 @@
         <v>76044</v>
       </c>
       <c r="D207" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E207" s="2">
         <v>45072</v>
       </c>
-      <c r="F207" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="H207" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B208">
         <v>2023</v>
@@ -5393,18 +6023,18 @@
         <v>57600</v>
       </c>
       <c r="D208" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E208" s="2">
         <v>45072</v>
       </c>
-      <c r="F208" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="H208" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B209">
         <v>2023</v>
@@ -5413,13 +6043,502 @@
         <v>80135</v>
       </c>
       <c r="D209" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="E209" s="2">
         <v>45076</v>
       </c>
-      <c r="F209" t="s">
-        <v>250</v>
+      <c r="H209" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210">
+        <v>2023</v>
+      </c>
+      <c r="C210">
+        <v>23352</v>
+      </c>
+      <c r="D210" t="s">
+        <v>260</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45090</v>
+      </c>
+      <c r="H210" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211">
+        <v>2023</v>
+      </c>
+      <c r="C211">
+        <v>46106</v>
+      </c>
+      <c r="D211" t="s">
+        <v>234</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45091</v>
+      </c>
+      <c r="H211" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212">
+        <v>2023</v>
+      </c>
+      <c r="C212">
+        <v>44064</v>
+      </c>
+      <c r="D212" t="s">
+        <v>235</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45092</v>
+      </c>
+      <c r="H212" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213">
+        <v>2023</v>
+      </c>
+      <c r="C213">
+        <v>32832</v>
+      </c>
+      <c r="D213" t="s">
+        <v>261</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45092</v>
+      </c>
+      <c r="H213" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <v>2023</v>
+      </c>
+      <c r="C214">
+        <v>19530</v>
+      </c>
+      <c r="D214" t="s">
+        <v>262</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45083</v>
+      </c>
+      <c r="H214" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215">
+        <v>2023</v>
+      </c>
+      <c r="C215">
+        <v>100068</v>
+      </c>
+      <c r="D215" t="s">
+        <v>235</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45113</v>
+      </c>
+      <c r="H215" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216">
+        <v>2023</v>
+      </c>
+      <c r="C216">
+        <v>74972.74000000001</v>
+      </c>
+      <c r="D216" t="s">
+        <v>233</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45104</v>
+      </c>
+      <c r="H216" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <v>2023</v>
+      </c>
+      <c r="C217">
+        <v>6371</v>
+      </c>
+      <c r="D217" t="s">
+        <v>234</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45106</v>
+      </c>
+      <c r="G217" t="s">
+        <v>285</v>
+      </c>
+      <c r="H217" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <v>2023</v>
+      </c>
+      <c r="C218">
+        <v>98144</v>
+      </c>
+      <c r="D218" t="s">
+        <v>263</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45106</v>
+      </c>
+      <c r="H218" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>2023</v>
+      </c>
+      <c r="C219">
+        <v>174121</v>
+      </c>
+      <c r="D219" t="s">
+        <v>237</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45112</v>
+      </c>
+      <c r="H219" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <v>2023</v>
+      </c>
+      <c r="C220">
+        <v>38576</v>
+      </c>
+      <c r="D220" t="s">
+        <v>235</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45114</v>
+      </c>
+      <c r="H220" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221">
+        <v>2023</v>
+      </c>
+      <c r="C221">
+        <v>25546.77</v>
+      </c>
+      <c r="D221" t="s">
+        <v>234</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45103</v>
+      </c>
+      <c r="H221" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>219</v>
+      </c>
+      <c r="B222">
+        <v>2023</v>
+      </c>
+      <c r="C222">
+        <v>193200.15</v>
+      </c>
+      <c r="D222" t="s">
+        <v>234</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45103</v>
+      </c>
+      <c r="H222" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" t="s">
+        <v>220</v>
+      </c>
+      <c r="B223">
+        <v>2023</v>
+      </c>
+      <c r="C223">
+        <v>87298.83</v>
+      </c>
+      <c r="D223" t="s">
+        <v>234</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45145</v>
+      </c>
+      <c r="H223" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" t="s">
+        <v>221</v>
+      </c>
+      <c r="B224">
+        <v>2023</v>
+      </c>
+      <c r="C224">
+        <v>70780</v>
+      </c>
+      <c r="D224" t="s">
+        <v>252</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45145</v>
+      </c>
+      <c r="H224" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>222</v>
+      </c>
+      <c r="B225">
+        <v>2023</v>
+      </c>
+      <c r="C225">
+        <v>795170.24</v>
+      </c>
+      <c r="D225" t="s">
+        <v>233</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45154</v>
+      </c>
+      <c r="H225" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>223</v>
+      </c>
+      <c r="B226">
+        <v>2023</v>
+      </c>
+      <c r="C226">
+        <v>129827.5</v>
+      </c>
+      <c r="D226" t="s">
+        <v>233</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45160</v>
+      </c>
+      <c r="H226" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" t="s">
+        <v>224</v>
+      </c>
+      <c r="B227">
+        <v>2023</v>
+      </c>
+      <c r="C227">
+        <v>278110</v>
+      </c>
+      <c r="D227" t="s">
+        <v>234</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45112</v>
+      </c>
+      <c r="H227" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228">
+        <v>2023</v>
+      </c>
+      <c r="C228">
+        <v>75401.86</v>
+      </c>
+      <c r="D228" t="s">
+        <v>234</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45167</v>
+      </c>
+      <c r="G228" t="s">
+        <v>280</v>
+      </c>
+      <c r="H228" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" t="s">
+        <v>226</v>
+      </c>
+      <c r="B229">
+        <v>2023</v>
+      </c>
+      <c r="C229">
+        <v>129351.38</v>
+      </c>
+      <c r="D229" t="s">
+        <v>233</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45169</v>
+      </c>
+      <c r="H229" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" t="s">
+        <v>227</v>
+      </c>
+      <c r="B230">
+        <v>2023</v>
+      </c>
+      <c r="C230">
+        <v>146634</v>
+      </c>
+      <c r="D230" t="s">
+        <v>237</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45169</v>
+      </c>
+      <c r="H230" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>228</v>
+      </c>
+      <c r="B231">
+        <v>2023</v>
+      </c>
+      <c r="C231">
+        <v>95742</v>
+      </c>
+      <c r="D231" t="s">
+        <v>234</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45169</v>
+      </c>
+      <c r="H231" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>229</v>
+      </c>
+      <c r="B232">
+        <v>2023</v>
+      </c>
+      <c r="C232">
+        <v>44547</v>
+      </c>
+      <c r="D232" t="s">
+        <v>235</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45177</v>
+      </c>
+      <c r="G232" t="s">
+        <v>286</v>
+      </c>
+      <c r="H232" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" t="s">
+        <v>230</v>
+      </c>
+      <c r="B233">
+        <v>2023</v>
+      </c>
+      <c r="C233">
+        <v>69120</v>
+      </c>
+      <c r="D233" t="s">
+        <v>233</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45044</v>
+      </c>
+      <c r="H233" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/AllYearsMerged.xlsx
+++ b/AllYearsMerged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="327">
   <si>
     <t>CVR</t>
   </si>
@@ -709,6 +709,75 @@
     <t>35480919</t>
   </si>
   <si>
+    <t>21699780</t>
+  </si>
+  <si>
+    <t>41895128</t>
+  </si>
+  <si>
+    <t>34391513</t>
+  </si>
+  <si>
+    <t>80493215</t>
+  </si>
+  <si>
+    <t>40881239</t>
+  </si>
+  <si>
+    <t>67437853</t>
+  </si>
+  <si>
+    <t>12070942</t>
+  </si>
+  <si>
+    <t>45357716</t>
+  </si>
+  <si>
+    <t>33738811</t>
+  </si>
+  <si>
+    <t>26317797</t>
+  </si>
+  <si>
+    <t>10613779</t>
+  </si>
+  <si>
+    <t>20367997</t>
+  </si>
+  <si>
+    <t>28155379</t>
+  </si>
+  <si>
+    <t>27524958</t>
+  </si>
+  <si>
+    <t>13893179</t>
+  </si>
+  <si>
+    <t>29186898</t>
+  </si>
+  <si>
+    <t>47252059</t>
+  </si>
+  <si>
+    <t>66328511</t>
+  </si>
+  <si>
+    <t>14364641</t>
+  </si>
+  <si>
+    <t>32762646</t>
+  </si>
+  <si>
+    <t>35432604</t>
+  </si>
+  <si>
+    <t>19764338</t>
+  </si>
+  <si>
+    <t>28979355</t>
+  </si>
+  <si>
     <t>Visma Expense</t>
   </si>
   <si>
@@ -808,6 +877,12 @@
     <t>BPO, Løn og HR</t>
   </si>
   <si>
+    <t>Visma HR inkl. Self Service</t>
+  </si>
+  <si>
+    <t>Visma Refusion Manuel</t>
+  </si>
+  <si>
     <t>Anden årsag (angiv hvilken i bemærkninger)</t>
   </si>
   <si>
@@ -877,6 +952,15 @@
     <t>Jobindex</t>
   </si>
   <si>
+    <t>ADP Celergo</t>
+  </si>
+  <si>
+    <t>Azets</t>
+  </si>
+  <si>
+    <t>Baltic Assist</t>
+  </si>
+  <si>
     <t>2021Q1</t>
   </si>
   <si>
@@ -908,6 +992,9 @@
   </si>
   <si>
     <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H233"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,16 +1399,16 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1335,19 +1422,19 @@
         <v>77346.97</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E3" s="2">
         <v>44208</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1361,16 +1448,16 @@
         <v>52126.72</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E4" s="2">
         <v>44209</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H4" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1384,16 +1471,16 @@
         <v>13053.78</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E5" s="2">
         <v>44224</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1407,16 +1494,16 @@
         <v>28895.99</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E6" s="2">
         <v>44202</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1430,16 +1517,16 @@
         <v>36113.01</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E7" s="2">
         <v>44218</v>
       </c>
       <c r="F7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H7" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1453,19 +1540,19 @@
         <v>50524.99</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E8" s="2">
         <v>44217</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G8" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="H8" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1479,19 +1566,19 @@
         <v>39790.38</v>
       </c>
       <c r="D9" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E9" s="2">
         <v>44228</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H9" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1505,19 +1592,19 @@
         <v>59748.16</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E10" s="2">
         <v>44229</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="G10" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1531,19 +1618,19 @@
         <v>20969.32</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E11" s="2">
         <v>44267</v>
       </c>
       <c r="F11" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H11" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1557,16 +1644,16 @@
         <v>26744.54</v>
       </c>
       <c r="D12" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E12" s="2">
         <v>44260</v>
       </c>
       <c r="F12" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H12" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1580,16 +1667,16 @@
         <v>159260.11</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E13" s="2">
         <v>44265</v>
       </c>
       <c r="F13" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H13" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1603,16 +1690,16 @@
         <v>15000</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E14" s="2">
         <v>44267</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H14" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1626,16 +1713,16 @@
         <v>180204.78</v>
       </c>
       <c r="D15" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E15" s="2">
         <v>44259</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H15" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1649,19 +1736,19 @@
         <v>17060.16</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E16" s="2">
         <v>44279</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="G16" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="H16" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1675,16 +1762,16 @@
         <v>48008.41</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E17" s="2">
         <v>44279</v>
       </c>
       <c r="F17" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H17" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1698,19 +1785,19 @@
         <v>14114.21</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E18" s="2">
         <v>44293</v>
       </c>
       <c r="F18" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="G18" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1724,16 +1811,16 @@
         <v>12344.44</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E19" s="2">
         <v>44285</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H19" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1747,16 +1834,16 @@
         <v>23323</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E20" s="2">
         <v>44281</v>
       </c>
       <c r="F20" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="H20" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1770,16 +1857,16 @@
         <v>143670.95</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E21" s="2">
         <v>44286</v>
       </c>
       <c r="F21" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H21" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1793,16 +1880,16 @@
         <v>15000</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E22" s="2">
         <v>44300</v>
       </c>
       <c r="F22" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H22" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1816,16 +1903,16 @@
         <v>15563.96</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E23" s="2">
         <v>44306</v>
       </c>
       <c r="F23" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H23" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1839,16 +1926,16 @@
         <v>42997.07</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E24" s="2">
         <v>44299</v>
       </c>
       <c r="F24" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H24" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1862,16 +1949,16 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2">
         <v>44314</v>
       </c>
       <c r="F25" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H25" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1885,16 +1972,16 @@
         <v>51618.2</v>
       </c>
       <c r="D26" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E26" s="2">
         <v>44315</v>
       </c>
       <c r="F26" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H26" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1908,16 +1995,16 @@
         <v>118122.86</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2">
         <v>44315</v>
       </c>
       <c r="F27" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H27" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1931,16 +2018,16 @@
         <v>101094.66</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E28" s="2">
         <v>44314</v>
       </c>
       <c r="F28" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H28" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1954,16 +2041,16 @@
         <v>15511.36</v>
       </c>
       <c r="D29" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E29" s="2">
         <v>44326</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H29" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1977,16 +2064,16 @@
         <v>144961.24</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E30" s="2">
         <v>44315</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H30" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2000,16 +2087,16 @@
         <v>109548</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E31" s="2">
         <v>44344</v>
       </c>
       <c r="F31" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H31" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2023,16 +2110,16 @@
         <v>19589.49</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E32" s="2">
         <v>44336</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H32" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2046,16 +2133,16 @@
         <v>74992</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E33" s="2">
         <v>44347</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H33" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2069,16 +2156,16 @@
         <v>109791.88</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E34" s="2">
         <v>44347</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H34" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2092,16 +2179,16 @@
         <v>24096</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E35" s="2">
         <v>44350</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H35" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2115,16 +2202,16 @@
         <v>32894</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E36" s="2">
         <v>44363</v>
       </c>
       <c r="F36" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H36" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2138,19 +2225,19 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E37" s="2">
         <v>44348</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G37" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="H37" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2164,16 +2251,16 @@
         <v>79410</v>
       </c>
       <c r="D38" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E38" s="2">
         <v>44355</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="H38" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2187,16 +2274,16 @@
         <v>51608.6</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E39" s="2">
         <v>44368</v>
       </c>
       <c r="F39" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H39" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2210,16 +2297,16 @@
         <v>49192.74</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E40" s="2">
         <v>44375</v>
       </c>
       <c r="F40" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H40" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2233,19 +2320,19 @@
         <v>47508</v>
       </c>
       <c r="D41" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E41" s="2">
         <v>44376</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="G41" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="H41" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2259,16 +2346,16 @@
         <v>32673</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E42" s="2">
         <v>44375</v>
       </c>
       <c r="F42" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H42" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2282,16 +2369,16 @@
         <v>48167</v>
       </c>
       <c r="D43" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E43" s="2">
         <v>44376</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H43" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2305,16 +2392,16 @@
         <v>98778.67</v>
       </c>
       <c r="D44" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E44" s="2">
         <v>44376</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H44" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2328,16 +2415,16 @@
         <v>21226.54</v>
       </c>
       <c r="D45" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E45" s="2">
         <v>44385</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H45" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2351,19 +2438,19 @@
         <v>1018113</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E46" s="2">
         <v>44377</v>
       </c>
       <c r="F46" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="G46" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="H46" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2377,16 +2464,16 @@
         <v>145281</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E47" s="2">
         <v>44376</v>
       </c>
       <c r="F47" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H47" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2400,16 +2487,16 @@
         <v>437295</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E48" s="2">
         <v>44354</v>
       </c>
       <c r="F48" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H48" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2423,19 +2510,19 @@
         <v>48600</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E49" s="2">
         <v>44371</v>
       </c>
       <c r="F49" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="G49" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="H49" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2449,19 +2536,19 @@
         <v>78696</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="E50" s="2">
         <v>44371</v>
       </c>
       <c r="F50" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="G50" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="H50" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2475,16 +2562,16 @@
         <v>27360</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="E51" s="2">
         <v>44407</v>
       </c>
       <c r="F51" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H51" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2498,16 +2585,16 @@
         <v>54307</v>
       </c>
       <c r="D52" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E52" s="2">
         <v>44382</v>
       </c>
       <c r="F52" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H52" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2521,16 +2608,16 @@
         <v>18049.5</v>
       </c>
       <c r="D53" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E53" s="2">
         <v>44410</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H53" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2544,19 +2631,19 @@
         <v>426000</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="E54" s="2">
         <v>44374</v>
       </c>
       <c r="F54" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="G54" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="H54" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2570,16 +2657,16 @@
         <v>96164</v>
       </c>
       <c r="D55" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="E55" s="2">
         <v>44438</v>
       </c>
       <c r="F55" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H55" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2593,19 +2680,19 @@
         <v>21660</v>
       </c>
       <c r="D56" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E56" s="2">
         <v>44440</v>
       </c>
       <c r="F56" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="G56" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H56" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2619,16 +2706,16 @@
         <v>164796</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E57" s="2">
         <v>44432</v>
       </c>
       <c r="F57" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H57" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2642,16 +2729,16 @@
         <v>226636</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E58" s="2">
         <v>44439</v>
       </c>
       <c r="F58" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H58" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2665,16 +2752,16 @@
         <v>117341</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E59" s="2">
         <v>44462</v>
       </c>
       <c r="F59" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H59" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2688,16 +2775,16 @@
         <v>150297</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E60" s="2">
         <v>44461</v>
       </c>
       <c r="F60" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H60" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2711,16 +2798,16 @@
         <v>25140.84</v>
       </c>
       <c r="D61" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E61" s="2">
         <v>44463</v>
       </c>
       <c r="F61" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H61" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2734,16 +2821,16 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E62" s="2">
         <v>44463</v>
       </c>
       <c r="F62" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H62" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2757,16 +2844,16 @@
         <v>30000</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="E63" s="2">
         <v>44454</v>
       </c>
       <c r="F63" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H63" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2780,16 +2867,16 @@
         <v>72674.92</v>
       </c>
       <c r="D64" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E64" s="2">
         <v>44469</v>
       </c>
       <c r="F64" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H64" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2803,16 +2890,16 @@
         <v>158752.08</v>
       </c>
       <c r="D65" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="E65" s="2">
         <v>44483</v>
       </c>
       <c r="F65" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H65" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2826,16 +2913,16 @@
         <v>36348</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E66" s="2">
         <v>44463</v>
       </c>
       <c r="F66" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H66" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2849,16 +2936,16 @@
         <v>17258.07</v>
       </c>
       <c r="D67" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E67" s="2">
         <v>44489</v>
       </c>
       <c r="F67" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H67" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2872,16 +2959,16 @@
         <v>36000</v>
       </c>
       <c r="D68" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E68" s="2">
         <v>44438</v>
       </c>
       <c r="F68" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H68" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2895,19 +2982,19 @@
         <v>321844</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E69" s="2">
         <v>44438</v>
       </c>
       <c r="F69" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G69" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="H69" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2921,16 +3008,16 @@
         <v>30320</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E70" s="2">
         <v>44483</v>
       </c>
       <c r="F70" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H70" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2944,19 +3031,19 @@
         <v>61133.08</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E71" s="2">
         <v>44498</v>
       </c>
       <c r="F71" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G71" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H71" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2970,16 +3057,16 @@
         <v>11524</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="E72" s="2">
         <v>44503</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H72" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2993,16 +3080,16 @@
         <v>35463.96</v>
       </c>
       <c r="D73" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E73" s="2">
         <v>44498</v>
       </c>
       <c r="F73" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H73" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3016,16 +3103,16 @@
         <v>123014.81</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E74" s="2">
         <v>44518</v>
       </c>
       <c r="F74" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H74" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3039,16 +3126,16 @@
         <v>97596.27</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E75" s="2">
         <v>44515</v>
       </c>
       <c r="F75" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H75" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3062,16 +3149,16 @@
         <v>18103.47</v>
       </c>
       <c r="D76" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E76" s="2">
         <v>44523</v>
       </c>
       <c r="F76" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H76" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3085,19 +3172,19 @@
         <v>21375.84</v>
       </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="E77" s="2">
         <v>44505</v>
       </c>
       <c r="F77" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G77" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H77" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3111,16 +3198,16 @@
         <v>77675.48</v>
       </c>
       <c r="D78" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E78" s="2">
         <v>44498</v>
       </c>
       <c r="F78" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H78" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3134,16 +3221,16 @@
         <v>137845</v>
       </c>
       <c r="D79" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E79" s="2">
         <v>44448</v>
       </c>
       <c r="F79" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H79" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3157,16 +3244,16 @@
         <v>387640</v>
       </c>
       <c r="D80" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E80" s="2">
         <v>44467</v>
       </c>
       <c r="F80" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H80" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3180,16 +3267,16 @@
         <v>65365</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E81" s="2">
         <v>44530</v>
       </c>
       <c r="F81" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H81" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3203,16 +3290,16 @@
         <v>59696</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E82" s="2">
         <v>44531</v>
       </c>
       <c r="F82" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H82" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3226,16 +3313,16 @@
         <v>33761</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E83" s="2">
         <v>44545</v>
       </c>
       <c r="G83" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H83" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3249,16 +3336,16 @@
         <v>33034</v>
       </c>
       <c r="D84" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E84" s="2">
         <v>44498</v>
       </c>
       <c r="F84" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H84" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3272,16 +3359,16 @@
         <v>162281</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E85" s="2">
         <v>44530</v>
       </c>
       <c r="F85" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H85" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3295,16 +3382,16 @@
         <v>22438</v>
       </c>
       <c r="D86" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E86" s="2">
         <v>44546</v>
       </c>
       <c r="F86" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H86" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3318,16 +3405,16 @@
         <v>18120</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="E87" s="2">
         <v>44498</v>
       </c>
       <c r="F87" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H87" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3341,16 +3428,16 @@
         <v>37004</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E88" s="2">
         <v>44550</v>
       </c>
       <c r="F88" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H88" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3364,16 +3451,16 @@
         <v>55692.36</v>
       </c>
       <c r="D89" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E89" s="2">
         <v>44540</v>
       </c>
       <c r="F89" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H89" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3387,16 +3474,16 @@
         <v>58860</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E90" s="2">
         <v>44553</v>
       </c>
       <c r="F90" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H90" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3410,16 +3497,16 @@
         <v>1724952</v>
       </c>
       <c r="D91" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="E91" s="2">
         <v>44494</v>
       </c>
       <c r="F91" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H91" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3433,16 +3520,16 @@
         <v>156000</v>
       </c>
       <c r="D92" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="E92" s="2">
         <v>44466</v>
       </c>
       <c r="F92" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="H92" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3456,16 +3543,16 @@
         <v>1783320</v>
       </c>
       <c r="D93" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E93" s="2">
         <v>44557</v>
       </c>
       <c r="F93" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H93" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3479,19 +3566,19 @@
         <v>44529.04</v>
       </c>
       <c r="D94" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E94" s="2">
         <v>44583</v>
       </c>
       <c r="F94" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="G94" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="H94" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3505,16 +3592,16 @@
         <v>195393.13</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E95" s="2">
         <v>44587</v>
       </c>
       <c r="F95" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H95" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3528,16 +3615,16 @@
         <v>16357.92</v>
       </c>
       <c r="D96" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E96" s="2">
         <v>44589</v>
       </c>
       <c r="F96" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H96" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3551,19 +3638,19 @@
         <v>86395.57000000001</v>
       </c>
       <c r="D97" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E97" s="2">
         <v>44592</v>
       </c>
       <c r="F97" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G97" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="H97" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3577,16 +3664,16 @@
         <v>65843.74000000001</v>
       </c>
       <c r="D98" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E98" s="2">
         <v>44592</v>
       </c>
       <c r="F98" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H98" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3600,16 +3687,16 @@
         <v>44071.91</v>
       </c>
       <c r="D99" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E99" s="2">
         <v>44593</v>
       </c>
       <c r="F99" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H99" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3623,16 +3710,16 @@
         <v>18108</v>
       </c>
       <c r="D100" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E100" s="2">
         <v>44594</v>
       </c>
       <c r="F100" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H100" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3646,16 +3733,16 @@
         <v>123510</v>
       </c>
       <c r="D101" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E101" s="2">
         <v>44594</v>
       </c>
       <c r="F101" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H101" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3669,16 +3756,16 @@
         <v>32379.56</v>
       </c>
       <c r="D102" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E102" s="2">
         <v>44599</v>
       </c>
       <c r="F102" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H102" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3692,19 +3779,19 @@
         <v>2206300</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E103" s="2">
         <v>44599</v>
       </c>
       <c r="F103" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G103" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="H103" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3718,16 +3805,16 @@
         <v>59444.88</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E104" s="2">
         <v>44600</v>
       </c>
       <c r="F104" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H104" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3741,16 +3828,16 @@
         <v>27046.56</v>
       </c>
       <c r="D105" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E105" s="2">
         <v>44601</v>
       </c>
       <c r="F105" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H105" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3764,16 +3851,16 @@
         <v>78090</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E106" s="2">
         <v>44602</v>
       </c>
       <c r="F106" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H106" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3787,16 +3874,16 @@
         <v>131316</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E107" s="2">
         <v>44609</v>
       </c>
       <c r="F107" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H107" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3810,16 +3897,16 @@
         <v>26775.27</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E108" s="2">
         <v>44609</v>
       </c>
       <c r="F108" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H108" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3833,16 +3920,16 @@
         <v>21714.47</v>
       </c>
       <c r="D109" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E109" s="2">
         <v>44615</v>
       </c>
       <c r="F109" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H109" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3856,16 +3943,16 @@
         <v>284992.08</v>
       </c>
       <c r="D110" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E110" s="2">
         <v>44615</v>
       </c>
       <c r="F110" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H110" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3879,16 +3966,16 @@
         <v>79981.99000000001</v>
       </c>
       <c r="D111" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E111" s="2">
         <v>44617</v>
       </c>
       <c r="F111" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H111" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3902,16 +3989,16 @@
         <v>73747</v>
       </c>
       <c r="D112" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E112" s="2">
         <v>44617</v>
       </c>
       <c r="F112" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H112" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3925,16 +4012,16 @@
         <v>154056.97</v>
       </c>
       <c r="D113" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E113" s="2">
         <v>44620</v>
       </c>
       <c r="F113" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H113" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3948,16 +4035,16 @@
         <v>22255.93</v>
       </c>
       <c r="D114" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E114" s="2">
         <v>44620</v>
       </c>
       <c r="F114" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H114" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3971,16 +4058,16 @@
         <v>12087</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="E115" s="2">
         <v>44620</v>
       </c>
       <c r="F115" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H115" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3994,16 +4081,16 @@
         <v>229700</v>
       </c>
       <c r="D116" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E116" s="2">
         <v>44630</v>
       </c>
       <c r="F116" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H116" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4017,16 +4104,16 @@
         <v>153000</v>
       </c>
       <c r="D117" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E117" s="2">
         <v>44631</v>
       </c>
       <c r="F117" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H117" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4040,16 +4127,16 @@
         <v>4467</v>
       </c>
       <c r="D118" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E118" s="2">
         <v>44634</v>
       </c>
       <c r="F118" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H118" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4063,16 +4150,16 @@
         <v>46500</v>
       </c>
       <c r="D119" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E119" s="2">
         <v>44637</v>
       </c>
       <c r="F119" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H119" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4086,16 +4173,16 @@
         <v>113561</v>
       </c>
       <c r="D120" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E120" s="2">
         <v>44643</v>
       </c>
       <c r="F120" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H120" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4109,16 +4196,16 @@
         <v>50075</v>
       </c>
       <c r="D121" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E121" s="2">
         <v>44645</v>
       </c>
       <c r="F121" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H121" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4132,16 +4219,16 @@
         <v>264132</v>
       </c>
       <c r="D122" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E122" s="2">
         <v>44645</v>
       </c>
       <c r="F122" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H122" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4155,16 +4242,16 @@
         <v>95656.64999999999</v>
       </c>
       <c r="D123" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E123" s="2">
         <v>44649</v>
       </c>
       <c r="F123" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H123" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4178,16 +4265,16 @@
         <v>19712.96</v>
       </c>
       <c r="D124" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E124" s="2">
         <v>44649</v>
       </c>
       <c r="F124" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H124" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4201,16 +4288,16 @@
         <v>5520</v>
       </c>
       <c r="D125" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="E125" s="2">
         <v>44652</v>
       </c>
       <c r="F125" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H125" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4224,19 +4311,19 @@
         <v>15000</v>
       </c>
       <c r="D126" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E126" s="2">
         <v>44655</v>
       </c>
       <c r="F126" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="G126" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H126" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4250,16 +4337,16 @@
         <v>44929.04</v>
       </c>
       <c r="D127" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E127" s="2">
         <v>44655</v>
       </c>
       <c r="F127" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H127" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4273,16 +4360,16 @@
         <v>2164926</v>
       </c>
       <c r="D128" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E128" s="2">
         <v>44656</v>
       </c>
       <c r="F128" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H128" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4296,16 +4383,16 @@
         <v>5500</v>
       </c>
       <c r="D129" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="E129" s="2">
         <v>44672</v>
       </c>
       <c r="F129" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H129" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4319,16 +4406,16 @@
         <v>80534</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E130" s="2">
         <v>44681</v>
       </c>
       <c r="F130" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="H130" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4342,16 +4429,16 @@
         <v>58657</v>
       </c>
       <c r="D131" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E131" s="2">
         <v>44685</v>
       </c>
       <c r="F131" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H131" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4365,16 +4452,16 @@
         <v>259880</v>
       </c>
       <c r="D132" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E132" s="2">
         <v>44692</v>
       </c>
       <c r="F132" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H132" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4388,16 +4475,16 @@
         <v>44851</v>
       </c>
       <c r="D133" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E133" s="2">
         <v>44719</v>
       </c>
       <c r="F133" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H133" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4411,16 +4498,16 @@
         <v>15000</v>
       </c>
       <c r="D134" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E134" s="2">
         <v>44719</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H134" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4434,16 +4521,16 @@
         <v>36000</v>
       </c>
       <c r="D135" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E135" s="2">
         <v>44732</v>
       </c>
       <c r="F135" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H135" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4457,16 +4544,16 @@
         <v>85765.3</v>
       </c>
       <c r="D136" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E136" s="2">
         <v>44736</v>
       </c>
       <c r="F136" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H136" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4480,16 +4567,16 @@
         <v>41918.41</v>
       </c>
       <c r="D137" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E137" s="2">
         <v>44742</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H137" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4503,16 +4590,16 @@
         <v>141922</v>
       </c>
       <c r="D138" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E138" s="2">
         <v>44742</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H138" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4526,16 +4613,16 @@
         <v>36000</v>
       </c>
       <c r="D139" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="E139" s="2">
         <v>44742</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H139" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4549,16 +4636,16 @@
         <v>53378.16</v>
       </c>
       <c r="D140" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E140" s="2">
         <v>44749</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H140" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4572,16 +4659,16 @@
         <v>40191.95</v>
       </c>
       <c r="D141" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E141" s="2">
         <v>44753</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H141" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4595,19 +4682,19 @@
         <v>33339.71</v>
       </c>
       <c r="D142" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E142" s="2">
         <v>44774</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="G142" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H142" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4621,16 +4708,16 @@
         <v>12000</v>
       </c>
       <c r="D143" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E143" s="2">
         <v>44775</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H143" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4644,16 +4731,16 @@
         <v>142246</v>
       </c>
       <c r="D144" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E144" s="2">
         <v>44783</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H144" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4667,16 +4754,16 @@
         <v>57060</v>
       </c>
       <c r="D145" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="E145" s="2">
         <v>44784</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="H145" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4690,16 +4777,16 @@
         <v>24581</v>
       </c>
       <c r="D146" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E146" s="2">
         <v>44810</v>
       </c>
       <c r="F146" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H146" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4713,16 +4800,16 @@
         <v>61008</v>
       </c>
       <c r="D147" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E147" s="2">
         <v>44811</v>
       </c>
       <c r="F147" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H147" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4736,16 +4823,16 @@
         <v>108824</v>
       </c>
       <c r="D148" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E148" s="2">
         <v>44816</v>
       </c>
       <c r="F148" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H148" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4759,16 +4846,16 @@
         <v>18449</v>
       </c>
       <c r="D149" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E149" s="2">
         <v>44820</v>
       </c>
       <c r="F149" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H149" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4782,10 +4869,10 @@
         <v>9000</v>
       </c>
       <c r="D150" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="F150" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4799,16 +4886,16 @@
         <v>31068</v>
       </c>
       <c r="D151" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E151" s="2">
         <v>44831</v>
       </c>
       <c r="F151" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H151" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4822,16 +4909,16 @@
         <v>48312</v>
       </c>
       <c r="D152" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="E152" s="2">
         <v>44833</v>
       </c>
       <c r="F152" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H152" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4845,16 +4932,16 @@
         <v>310116</v>
       </c>
       <c r="D153" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E153" s="2">
         <v>44823</v>
       </c>
       <c r="F153" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H153" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4868,19 +4955,19 @@
         <v>145870</v>
       </c>
       <c r="D154" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E154" s="2">
         <v>44834</v>
       </c>
       <c r="F154" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G154" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H154" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4894,16 +4981,16 @@
         <v>61182</v>
       </c>
       <c r="D155" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E155" s="2">
         <v>44858</v>
       </c>
       <c r="F155" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H155" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4917,16 +5004,16 @@
         <v>564456</v>
       </c>
       <c r="D156" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E156" s="2">
         <v>44834</v>
       </c>
       <c r="F156" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H156" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4940,16 +5027,16 @@
         <v>15360</v>
       </c>
       <c r="D157" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E157" s="2">
         <v>44852</v>
       </c>
       <c r="F157" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H157" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4963,16 +5050,16 @@
         <v>17098</v>
       </c>
       <c r="D158" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E158" s="2">
         <v>44861</v>
       </c>
       <c r="F158" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H158" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4986,16 +5073,16 @@
         <v>47117</v>
       </c>
       <c r="D159" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E159" s="2">
         <v>44862</v>
       </c>
       <c r="F159" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H159" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5009,16 +5096,16 @@
         <v>71046</v>
       </c>
       <c r="D160" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E160" s="2">
         <v>44865</v>
       </c>
       <c r="F160" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H160" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5032,16 +5119,16 @@
         <v>16796</v>
       </c>
       <c r="D161" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E161" s="2">
         <v>44865</v>
       </c>
       <c r="F161" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H161" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5055,16 +5142,16 @@
         <v>30806</v>
       </c>
       <c r="D162" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E162" s="2">
         <v>44868</v>
       </c>
       <c r="F162" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H162" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5078,16 +5165,16 @@
         <v>42583</v>
       </c>
       <c r="D163" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E163" s="2">
         <v>44872</v>
       </c>
       <c r="F163" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H163" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5101,16 +5188,16 @@
         <v>15000</v>
       </c>
       <c r="D164" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E164" s="2">
         <v>44837</v>
       </c>
       <c r="F164" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H164" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5124,16 +5211,16 @@
         <v>20172</v>
       </c>
       <c r="D165" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E165" s="2">
         <v>44873</v>
       </c>
       <c r="F165" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H165" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5147,19 +5234,19 @@
         <v>1033505</v>
       </c>
       <c r="D166" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E166" s="2">
         <v>44891</v>
       </c>
       <c r="F166" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="G166" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="H166" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5173,19 +5260,19 @@
         <v>101508</v>
       </c>
       <c r="D167" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E167" s="2">
         <v>44875</v>
       </c>
       <c r="F167" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G167" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H167" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5199,16 +5286,16 @@
         <v>289659</v>
       </c>
       <c r="D168" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E168" s="2">
         <v>44890</v>
       </c>
       <c r="F168" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H168" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5222,16 +5309,16 @@
         <v>44550</v>
       </c>
       <c r="D169" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E169" s="2">
         <v>44894</v>
       </c>
       <c r="F169" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H169" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5245,16 +5332,16 @@
         <v>50482.04</v>
       </c>
       <c r="D170" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="E170" s="2">
         <v>44831</v>
       </c>
       <c r="F170" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H170" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5268,16 +5355,16 @@
         <v>186313</v>
       </c>
       <c r="D171" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E171" s="2">
         <v>44895</v>
       </c>
       <c r="F171" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H171" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5291,16 +5378,16 @@
         <v>3432</v>
       </c>
       <c r="D172" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="E172" s="2">
         <v>44895</v>
       </c>
       <c r="F172" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H172" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5314,16 +5401,16 @@
         <v>24000</v>
       </c>
       <c r="D173" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E173" s="2">
         <v>44895</v>
       </c>
       <c r="F173" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H173" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5337,16 +5424,16 @@
         <v>6072</v>
       </c>
       <c r="D174" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E174" s="2">
         <v>44915</v>
       </c>
       <c r="F174" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="H174" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5360,19 +5447,19 @@
         <v>90042.39999999999</v>
       </c>
       <c r="D175" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E175" s="2">
         <v>44916</v>
       </c>
       <c r="F175" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="G175" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="H175" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5386,13 +5473,13 @@
         <v>4512</v>
       </c>
       <c r="D176" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E176" s="2">
         <v>44928</v>
       </c>
       <c r="H176" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5406,16 +5493,16 @@
         <v>52852.17</v>
       </c>
       <c r="D177" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E177" s="2">
         <v>44936</v>
       </c>
       <c r="G177" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="H177" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5429,13 +5516,13 @@
         <v>150188</v>
       </c>
       <c r="D178" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E178" s="2">
         <v>44939</v>
       </c>
       <c r="H178" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5449,13 +5536,13 @@
         <v>199392.4</v>
       </c>
       <c r="D179" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E179" s="2">
         <v>44950</v>
       </c>
       <c r="H179" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5469,13 +5556,13 @@
         <v>6137</v>
       </c>
       <c r="D180" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E180" s="2">
         <v>44951</v>
       </c>
       <c r="H180" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5489,7 +5576,7 @@
         <v>128134</v>
       </c>
       <c r="D181" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5503,13 +5590,13 @@
         <v>461390</v>
       </c>
       <c r="D182" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E182" s="2">
         <v>44952</v>
       </c>
       <c r="H182" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5523,13 +5610,13 @@
         <v>32723</v>
       </c>
       <c r="D183" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E183" s="2">
         <v>44956</v>
       </c>
       <c r="H183" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5543,13 +5630,13 @@
         <v>179010</v>
       </c>
       <c r="D184" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E184" s="2">
         <v>44972</v>
       </c>
       <c r="H184" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5563,13 +5650,13 @@
         <v>207498.12</v>
       </c>
       <c r="D185" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E185" s="2">
         <v>44978</v>
       </c>
       <c r="H185" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5583,13 +5670,13 @@
         <v>99798</v>
       </c>
       <c r="D186" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="E186" s="2">
         <v>44979</v>
       </c>
       <c r="H186" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5603,13 +5690,13 @@
         <v>6564</v>
       </c>
       <c r="D187" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E187" s="2">
         <v>44979</v>
       </c>
       <c r="H187" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5623,13 +5710,13 @@
         <v>303998.52</v>
       </c>
       <c r="D188" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E188" s="2">
         <v>44984</v>
       </c>
       <c r="H188" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5643,13 +5730,13 @@
         <v>160611</v>
       </c>
       <c r="D189" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E189" s="2">
         <v>45014</v>
       </c>
       <c r="H189" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5663,13 +5750,13 @@
         <v>58165</v>
       </c>
       <c r="D190" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E190" s="2">
         <v>45009</v>
       </c>
       <c r="H190" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5683,13 +5770,13 @@
         <v>74171</v>
       </c>
       <c r="D191" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E191" s="2">
         <v>45015</v>
       </c>
       <c r="H191" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5703,13 +5790,13 @@
         <v>4513</v>
       </c>
       <c r="D192" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E192" s="2">
         <v>45027</v>
       </c>
       <c r="H192" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5723,13 +5810,13 @@
         <v>132194</v>
       </c>
       <c r="D193" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E193" s="2">
         <v>45035</v>
       </c>
       <c r="H193" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5743,13 +5830,13 @@
         <v>71414.8</v>
       </c>
       <c r="D194" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="E194" s="2">
         <v>45029</v>
       </c>
       <c r="H194" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5763,13 +5850,13 @@
         <v>32046.79</v>
       </c>
       <c r="D195" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E195" s="2">
         <v>45043</v>
       </c>
       <c r="H195" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5783,13 +5870,13 @@
         <v>110646</v>
       </c>
       <c r="D196" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E196" s="2">
         <v>45047</v>
       </c>
       <c r="H196" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5803,13 +5890,13 @@
         <v>71077.63</v>
       </c>
       <c r="D197" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E197" s="2">
         <v>45047</v>
       </c>
       <c r="H197" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5823,13 +5910,13 @@
         <v>18378</v>
       </c>
       <c r="D198" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="E198" s="2">
         <v>45048</v>
       </c>
       <c r="H198" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5843,13 +5930,13 @@
         <v>171628</v>
       </c>
       <c r="D199" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E199" s="2">
         <v>45043</v>
       </c>
       <c r="H199" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5863,13 +5950,13 @@
         <v>303577</v>
       </c>
       <c r="D200" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="E200" s="2">
         <v>45020</v>
       </c>
       <c r="H200" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5883,13 +5970,13 @@
         <v>6277</v>
       </c>
       <c r="D201" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E201" s="2">
         <v>45048</v>
       </c>
       <c r="H201" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5903,13 +5990,13 @@
         <v>125865</v>
       </c>
       <c r="D202" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E202" s="2">
         <v>45044</v>
       </c>
       <c r="H202" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5923,13 +6010,13 @@
         <v>236370</v>
       </c>
       <c r="D203" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E203" s="2">
         <v>45043</v>
       </c>
       <c r="H203" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5943,13 +6030,13 @@
         <v>140432</v>
       </c>
       <c r="D204" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E204" s="2">
         <v>45061</v>
       </c>
       <c r="H204" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5963,13 +6050,13 @@
         <v>30453</v>
       </c>
       <c r="D205" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E205" s="2">
         <v>45070</v>
       </c>
       <c r="H205" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5983,13 +6070,13 @@
         <v>104340</v>
       </c>
       <c r="D206" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="E206" s="2">
         <v>45070</v>
       </c>
       <c r="H206" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6003,13 +6090,13 @@
         <v>76044</v>
       </c>
       <c r="D207" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E207" s="2">
         <v>45072</v>
       </c>
       <c r="H207" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6023,13 +6110,13 @@
         <v>57600</v>
       </c>
       <c r="D208" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="E208" s="2">
         <v>45072</v>
       </c>
       <c r="H208" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6043,13 +6130,13 @@
         <v>80135</v>
       </c>
       <c r="D209" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E209" s="2">
         <v>45076</v>
       </c>
       <c r="H209" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6063,13 +6150,13 @@
         <v>23352</v>
       </c>
       <c r="D210" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="E210" s="2">
         <v>45090</v>
       </c>
       <c r="H210" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6083,13 +6170,13 @@
         <v>46106</v>
       </c>
       <c r="D211" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E211" s="2">
         <v>45091</v>
       </c>
       <c r="H211" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6103,13 +6190,13 @@
         <v>44064</v>
       </c>
       <c r="D212" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E212" s="2">
         <v>45092</v>
       </c>
       <c r="H212" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6123,13 +6210,13 @@
         <v>32832</v>
       </c>
       <c r="D213" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="E213" s="2">
         <v>45092</v>
       </c>
       <c r="H213" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6143,13 +6230,13 @@
         <v>19530</v>
       </c>
       <c r="D214" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="E214" s="2">
         <v>45083</v>
       </c>
       <c r="H214" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6163,13 +6250,13 @@
         <v>100068</v>
       </c>
       <c r="D215" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E215" s="2">
         <v>45113</v>
       </c>
       <c r="H215" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6183,13 +6270,13 @@
         <v>74972.74000000001</v>
       </c>
       <c r="D216" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E216" s="2">
         <v>45104</v>
       </c>
       <c r="H216" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6203,16 +6290,16 @@
         <v>6371</v>
       </c>
       <c r="D217" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E217" s="2">
         <v>45106</v>
       </c>
       <c r="G217" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="H217" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6226,13 +6313,13 @@
         <v>98144</v>
       </c>
       <c r="D218" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="E218" s="2">
         <v>45106</v>
       </c>
       <c r="H218" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6246,13 +6333,13 @@
         <v>174121</v>
       </c>
       <c r="D219" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E219" s="2">
         <v>45112</v>
       </c>
       <c r="H219" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6266,13 +6353,13 @@
         <v>38576</v>
       </c>
       <c r="D220" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E220" s="2">
         <v>45114</v>
       </c>
       <c r="H220" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6286,13 +6373,13 @@
         <v>25546.77</v>
       </c>
       <c r="D221" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E221" s="2">
         <v>45103</v>
       </c>
       <c r="H221" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6306,13 +6393,13 @@
         <v>193200.15</v>
       </c>
       <c r="D222" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E222" s="2">
         <v>45103</v>
       </c>
       <c r="H222" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6326,13 +6413,13 @@
         <v>87298.83</v>
       </c>
       <c r="D223" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E223" s="2">
         <v>45145</v>
       </c>
       <c r="H223" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6346,13 +6433,13 @@
         <v>70780</v>
       </c>
       <c r="D224" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="E224" s="2">
         <v>45145</v>
       </c>
       <c r="H224" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6366,13 +6453,13 @@
         <v>795170.24</v>
       </c>
       <c r="D225" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E225" s="2">
         <v>45154</v>
       </c>
       <c r="H225" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6386,13 +6473,13 @@
         <v>129827.5</v>
       </c>
       <c r="D226" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E226" s="2">
         <v>45160</v>
       </c>
       <c r="H226" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6406,13 +6493,13 @@
         <v>278110</v>
       </c>
       <c r="D227" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E227" s="2">
         <v>45112</v>
       </c>
       <c r="H227" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6426,16 +6513,16 @@
         <v>75401.86</v>
       </c>
       <c r="D228" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E228" s="2">
         <v>45167</v>
       </c>
       <c r="G228" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="H228" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6449,13 +6536,13 @@
         <v>129351.38</v>
       </c>
       <c r="D229" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E229" s="2">
         <v>45169</v>
       </c>
       <c r="H229" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6469,13 +6556,13 @@
         <v>146634</v>
       </c>
       <c r="D230" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="E230" s="2">
         <v>45169</v>
       </c>
       <c r="H230" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6489,13 +6576,13 @@
         <v>95742</v>
       </c>
       <c r="D231" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="E231" s="2">
         <v>45169</v>
       </c>
       <c r="H231" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6509,16 +6596,16 @@
         <v>44547</v>
       </c>
       <c r="D232" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="E232" s="2">
         <v>45177</v>
       </c>
       <c r="G232" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="H232" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6532,13 +6619,523 @@
         <v>69120</v>
       </c>
       <c r="D233" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="E233" s="2">
         <v>45044</v>
       </c>
       <c r="H233" t="s">
-        <v>296</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>231</v>
+      </c>
+      <c r="B234">
+        <v>2023</v>
+      </c>
+      <c r="C234">
+        <v>21650.08</v>
+      </c>
+      <c r="D234" t="s">
+        <v>257</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45182</v>
+      </c>
+      <c r="G234" t="s">
+        <v>312</v>
+      </c>
+      <c r="H234" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>232</v>
+      </c>
+      <c r="B235">
+        <v>2023</v>
+      </c>
+      <c r="C235">
+        <v>120288</v>
+      </c>
+      <c r="D235" t="s">
+        <v>287</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45183</v>
+      </c>
+      <c r="H235" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" t="s">
+        <v>233</v>
+      </c>
+      <c r="B236">
+        <v>2023</v>
+      </c>
+      <c r="C236">
+        <v>102035.85</v>
+      </c>
+      <c r="D236" t="s">
+        <v>257</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45196</v>
+      </c>
+      <c r="G236" t="s">
+        <v>303</v>
+      </c>
+      <c r="H236" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>234</v>
+      </c>
+      <c r="B237">
+        <v>2023</v>
+      </c>
+      <c r="C237">
+        <v>83103.05</v>
+      </c>
+      <c r="D237" t="s">
+        <v>255</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45198</v>
+      </c>
+      <c r="G237" t="s">
+        <v>305</v>
+      </c>
+      <c r="H237" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>235</v>
+      </c>
+      <c r="B238">
+        <v>2023</v>
+      </c>
+      <c r="C238">
+        <v>28521.38</v>
+      </c>
+      <c r="D238" t="s">
+        <v>257</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45205</v>
+      </c>
+      <c r="G238" t="s">
+        <v>303</v>
+      </c>
+      <c r="H238" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" t="s">
+        <v>236</v>
+      </c>
+      <c r="B239">
+        <v>2023</v>
+      </c>
+      <c r="C239">
+        <v>30097</v>
+      </c>
+      <c r="D239" t="s">
+        <v>257</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45205</v>
+      </c>
+      <c r="G239" t="s">
+        <v>303</v>
+      </c>
+      <c r="H239" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>237</v>
+      </c>
+      <c r="B240">
+        <v>2023</v>
+      </c>
+      <c r="C240">
+        <v>85832.52</v>
+      </c>
+      <c r="D240" t="s">
+        <v>257</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45205</v>
+      </c>
+      <c r="G240" t="s">
+        <v>313</v>
+      </c>
+      <c r="H240" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" t="s">
+        <v>238</v>
+      </c>
+      <c r="B241">
+        <v>2023</v>
+      </c>
+      <c r="C241">
+        <v>60860</v>
+      </c>
+      <c r="D241" t="s">
+        <v>258</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45168</v>
+      </c>
+      <c r="H241" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" t="s">
+        <v>239</v>
+      </c>
+      <c r="B242">
+        <v>2023</v>
+      </c>
+      <c r="C242">
+        <v>65688</v>
+      </c>
+      <c r="D242" t="s">
+        <v>270</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45211</v>
+      </c>
+      <c r="H242" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>239</v>
+      </c>
+      <c r="B243">
+        <v>2023</v>
+      </c>
+      <c r="C243">
+        <v>39408</v>
+      </c>
+      <c r="D243" t="s">
+        <v>266</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45211</v>
+      </c>
+      <c r="H243" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
+        <v>240</v>
+      </c>
+      <c r="B244">
+        <v>2023</v>
+      </c>
+      <c r="C244">
+        <v>132000</v>
+      </c>
+      <c r="D244" t="s">
+        <v>259</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45230</v>
+      </c>
+      <c r="G244" t="s">
+        <v>314</v>
+      </c>
+      <c r="H244" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" t="s">
+        <v>241</v>
+      </c>
+      <c r="B245">
+        <v>2023</v>
+      </c>
+      <c r="C245">
+        <v>116715</v>
+      </c>
+      <c r="D245" t="s">
+        <v>257</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45212</v>
+      </c>
+      <c r="H245" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246">
+        <v>2023</v>
+      </c>
+      <c r="C246">
+        <v>128494</v>
+      </c>
+      <c r="D246" t="s">
+        <v>288</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45231</v>
+      </c>
+      <c r="H246" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" t="s">
+        <v>243</v>
+      </c>
+      <c r="B247">
+        <v>2023</v>
+      </c>
+      <c r="C247">
+        <v>20165</v>
+      </c>
+      <c r="D247" t="s">
+        <v>285</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45239</v>
+      </c>
+      <c r="H247" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" t="s">
+        <v>244</v>
+      </c>
+      <c r="B248">
+        <v>2023</v>
+      </c>
+      <c r="C248">
+        <v>163235.74</v>
+      </c>
+      <c r="D248" t="s">
+        <v>256</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45243</v>
+      </c>
+      <c r="G248" t="s">
+        <v>309</v>
+      </c>
+      <c r="H248" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>245</v>
+      </c>
+      <c r="B249">
+        <v>2023</v>
+      </c>
+      <c r="C249">
+        <v>40172</v>
+      </c>
+      <c r="D249" t="s">
+        <v>257</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45243</v>
+      </c>
+      <c r="G249" t="s">
+        <v>309</v>
+      </c>
+      <c r="H249" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>246</v>
+      </c>
+      <c r="B250">
+        <v>2023</v>
+      </c>
+      <c r="C250">
+        <v>23777</v>
+      </c>
+      <c r="D250" t="s">
+        <v>257</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45257</v>
+      </c>
+      <c r="H250" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" t="s">
+        <v>247</v>
+      </c>
+      <c r="B251">
+        <v>2023</v>
+      </c>
+      <c r="C251">
+        <v>31857</v>
+      </c>
+      <c r="D251" t="s">
+        <v>257</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45245</v>
+      </c>
+      <c r="H251" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" t="s">
+        <v>248</v>
+      </c>
+      <c r="B252">
+        <v>2023</v>
+      </c>
+      <c r="C252">
+        <v>109559.83</v>
+      </c>
+      <c r="D252" t="s">
+        <v>255</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45245</v>
+      </c>
+      <c r="H252" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>249</v>
+      </c>
+      <c r="B253">
+        <v>2023</v>
+      </c>
+      <c r="C253">
+        <v>22553</v>
+      </c>
+      <c r="D253" t="s">
+        <v>257</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45268</v>
+      </c>
+      <c r="G253" t="s">
+        <v>303</v>
+      </c>
+      <c r="H253" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" t="s">
+        <v>250</v>
+      </c>
+      <c r="B254">
+        <v>2023</v>
+      </c>
+      <c r="C254">
+        <v>40892</v>
+      </c>
+      <c r="D254" t="s">
+        <v>258</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45272</v>
+      </c>
+      <c r="H254" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" t="s">
+        <v>251</v>
+      </c>
+      <c r="B255">
+        <v>2023</v>
+      </c>
+      <c r="C255">
+        <v>128519</v>
+      </c>
+      <c r="D255" t="s">
+        <v>260</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45279</v>
+      </c>
+      <c r="H255" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>252</v>
+      </c>
+      <c r="B256">
+        <v>2023</v>
+      </c>
+      <c r="C256">
+        <v>24550</v>
+      </c>
+      <c r="D256" t="s">
+        <v>285</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45281</v>
+      </c>
+      <c r="H256" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" t="s">
+        <v>253</v>
+      </c>
+      <c r="B257">
+        <v>2023</v>
+      </c>
+      <c r="C257">
+        <v>20119</v>
+      </c>
+      <c r="D257" t="s">
+        <v>257</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45289</v>
+      </c>
+      <c r="H257" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/AllYearsMerged.xlsx
+++ b/AllYearsMerged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="391">
   <si>
     <t>CVR</t>
   </si>
@@ -778,6 +778,168 @@
     <t>28979355</t>
   </si>
   <si>
+    <t>45445216</t>
+  </si>
+  <si>
+    <t>30510518</t>
+  </si>
+  <si>
+    <t>25191811</t>
+  </si>
+  <si>
+    <t>37911143</t>
+  </si>
+  <si>
+    <t>30972406</t>
+  </si>
+  <si>
+    <t>39427168</t>
+  </si>
+  <si>
+    <t>33037287</t>
+  </si>
+  <si>
+    <t>21093106</t>
+  </si>
+  <si>
+    <t>25431588</t>
+  </si>
+  <si>
+    <t>27332072</t>
+  </si>
+  <si>
+    <t>30733053</t>
+  </si>
+  <si>
+    <t>15683481</t>
+  </si>
+  <si>
+    <t>25366034</t>
+  </si>
+  <si>
+    <t>25227832</t>
+  </si>
+  <si>
+    <t>33638760</t>
+  </si>
+  <si>
+    <t>20690003</t>
+  </si>
+  <si>
+    <t>40675523</t>
+  </si>
+  <si>
+    <t>21825832</t>
+  </si>
+  <si>
+    <t>35651950</t>
+  </si>
+  <si>
+    <t>56216316</t>
+  </si>
+  <si>
+    <t>20246693</t>
+  </si>
+  <si>
+    <t>15516046</t>
+  </si>
+  <si>
+    <t>19995739</t>
+  </si>
+  <si>
+    <t>41193093</t>
+  </si>
+  <si>
+    <t>39525984</t>
+  </si>
+  <si>
+    <t>26092515</t>
+  </si>
+  <si>
+    <t>46481410</t>
+  </si>
+  <si>
+    <t>71133214</t>
+  </si>
+  <si>
+    <t>31943140</t>
+  </si>
+  <si>
+    <t>35388451</t>
+  </si>
+  <si>
+    <t>19691403</t>
+  </si>
+  <si>
+    <t>18912236</t>
+  </si>
+  <si>
+    <t>14036431</t>
+  </si>
+  <si>
+    <t>38538071</t>
+  </si>
+  <si>
+    <t>29414815</t>
+  </si>
+  <si>
+    <t>15504749</t>
+  </si>
+  <si>
+    <t>66590119</t>
+  </si>
+  <si>
+    <t>30823699</t>
+  </si>
+  <si>
+    <t>16460516</t>
+  </si>
+  <si>
+    <t>15223332</t>
+  </si>
+  <si>
+    <t>12759274</t>
+  </si>
+  <si>
+    <t>56577815</t>
+  </si>
+  <si>
+    <t>77144714</t>
+  </si>
+  <si>
+    <t>42443611</t>
+  </si>
+  <si>
+    <t>29616647</t>
+  </si>
+  <si>
+    <t>10154529</t>
+  </si>
+  <si>
+    <t>41988169</t>
+  </si>
+  <si>
+    <t>43268570</t>
+  </si>
+  <si>
+    <t>25638670</t>
+  </si>
+  <si>
+    <t>20014784</t>
+  </si>
+  <si>
+    <t>61552812</t>
+  </si>
+  <si>
+    <t>24997189</t>
+  </si>
+  <si>
+    <t>12316100</t>
+  </si>
+  <si>
+    <t>10658446</t>
+  </si>
+  <si>
     <t>Visma Expense</t>
   </si>
   <si>
@@ -883,6 +1045,15 @@
     <t>Visma Refusion Manuel</t>
   </si>
   <si>
+    <t>Løn/HR og Time</t>
+  </si>
+  <si>
+    <t>BPO Løn og refusion</t>
+  </si>
+  <si>
+    <t>Kundeforhold</t>
+  </si>
+  <si>
     <t>Anden årsag (angiv hvilken i bemærkninger)</t>
   </si>
   <si>
@@ -961,6 +1132,18 @@
     <t>Baltic Assist</t>
   </si>
   <si>
+    <t>EG Lønservice</t>
+  </si>
+  <si>
+    <t>SD Worx</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>Workday</t>
+  </si>
+  <si>
     <t>2021Q1</t>
   </si>
   <si>
@@ -995,6 +1178,15 @@
   </si>
   <si>
     <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,16 +1591,16 @@
         <v>78556.39999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="E2" s="2">
         <v>44200</v>
       </c>
       <c r="F2" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1422,19 +1614,19 @@
         <v>77346.97</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E3" s="2">
         <v>44208</v>
       </c>
       <c r="F3" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="G3" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H3" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1448,16 +1640,16 @@
         <v>52126.72</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E4" s="2">
         <v>44209</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H4" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1471,16 +1663,16 @@
         <v>13053.78</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E5" s="2">
         <v>44224</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="H5" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1494,16 +1686,16 @@
         <v>28895.99</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E6" s="2">
         <v>44202</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1517,16 +1709,16 @@
         <v>36113.01</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E7" s="2">
         <v>44218</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1540,19 +1732,19 @@
         <v>50524.99</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E8" s="2">
         <v>44217</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1566,19 +1758,19 @@
         <v>39790.38</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E9" s="2">
         <v>44228</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="G9" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H9" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1592,19 +1784,19 @@
         <v>59748.16</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E10" s="2">
         <v>44229</v>
       </c>
       <c r="F10" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="G10" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="H10" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1618,19 +1810,19 @@
         <v>20969.32</v>
       </c>
       <c r="D11" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E11" s="2">
         <v>44267</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H11" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1644,16 +1836,16 @@
         <v>26744.54</v>
       </c>
       <c r="D12" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E12" s="2">
         <v>44260</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H12" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1667,16 +1859,16 @@
         <v>159260.11</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E13" s="2">
         <v>44265</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="H13" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1690,16 +1882,16 @@
         <v>15000</v>
       </c>
       <c r="D14" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E14" s="2">
         <v>44267</v>
       </c>
       <c r="F14" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H14" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1713,16 +1905,16 @@
         <v>180204.78</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E15" s="2">
         <v>44259</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H15" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1736,19 +1928,19 @@
         <v>17060.16</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E16" s="2">
         <v>44279</v>
       </c>
       <c r="F16" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="G16" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="H16" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1762,16 +1954,16 @@
         <v>48008.41</v>
       </c>
       <c r="D17" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E17" s="2">
         <v>44279</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H17" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1785,19 +1977,19 @@
         <v>14114.21</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E18" s="2">
         <v>44293</v>
       </c>
       <c r="F18" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="G18" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="H18" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1811,16 +2003,16 @@
         <v>12344.44</v>
       </c>
       <c r="D19" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E19" s="2">
         <v>44285</v>
       </c>
       <c r="F19" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H19" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1834,16 +2026,16 @@
         <v>23323</v>
       </c>
       <c r="D20" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E20" s="2">
         <v>44281</v>
       </c>
       <c r="F20" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="H20" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1857,16 +2049,16 @@
         <v>143670.95</v>
       </c>
       <c r="D21" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E21" s="2">
         <v>44286</v>
       </c>
       <c r="F21" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H21" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1880,16 +2072,16 @@
         <v>15000</v>
       </c>
       <c r="D22" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E22" s="2">
         <v>44300</v>
       </c>
       <c r="F22" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H22" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1903,16 +2095,16 @@
         <v>15563.96</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E23" s="2">
         <v>44306</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="H23" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1926,16 +2118,16 @@
         <v>42997.07</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E24" s="2">
         <v>44299</v>
       </c>
       <c r="F24" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="H24" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1949,16 +2141,16 @@
         <v>72038.67999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E25" s="2">
         <v>44314</v>
       </c>
       <c r="F25" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H25" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1972,16 +2164,16 @@
         <v>51618.2</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E26" s="2">
         <v>44315</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H26" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1995,16 +2187,16 @@
         <v>118122.86</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E27" s="2">
         <v>44315</v>
       </c>
       <c r="F27" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H27" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2018,16 +2210,16 @@
         <v>101094.66</v>
       </c>
       <c r="D28" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E28" s="2">
         <v>44314</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H28" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2041,16 +2233,16 @@
         <v>15511.36</v>
       </c>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E29" s="2">
         <v>44326</v>
       </c>
       <c r="F29" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H29" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2064,16 +2256,16 @@
         <v>144961.24</v>
       </c>
       <c r="D30" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E30" s="2">
         <v>44315</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="H30" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2087,16 +2279,16 @@
         <v>109548</v>
       </c>
       <c r="D31" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E31" s="2">
         <v>44344</v>
       </c>
       <c r="F31" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H31" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2110,16 +2302,16 @@
         <v>19589.49</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E32" s="2">
         <v>44336</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="H32" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2133,16 +2325,16 @@
         <v>74992</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E33" s="2">
         <v>44347</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H33" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2156,16 +2348,16 @@
         <v>109791.88</v>
       </c>
       <c r="D34" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E34" s="2">
         <v>44347</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H34" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2179,16 +2371,16 @@
         <v>24096</v>
       </c>
       <c r="D35" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E35" s="2">
         <v>44350</v>
       </c>
       <c r="F35" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H35" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2202,16 +2394,16 @@
         <v>32894</v>
       </c>
       <c r="D36" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E36" s="2">
         <v>44363</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H36" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2225,19 +2417,19 @@
         <v>90898.60000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E37" s="2">
         <v>44348</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="H37" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2251,16 +2443,16 @@
         <v>79410</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E38" s="2">
         <v>44355</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="H38" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2274,16 +2466,16 @@
         <v>51608.6</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E39" s="2">
         <v>44368</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H39" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2297,16 +2489,16 @@
         <v>49192.74</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E40" s="2">
         <v>44375</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H40" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2320,19 +2512,19 @@
         <v>47508</v>
       </c>
       <c r="D41" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E41" s="2">
         <v>44376</v>
       </c>
       <c r="F41" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="G41" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="H41" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2346,16 +2538,16 @@
         <v>32673</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E42" s="2">
         <v>44375</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H42" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2369,16 +2561,16 @@
         <v>48167</v>
       </c>
       <c r="D43" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E43" s="2">
         <v>44376</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H43" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2392,16 +2584,16 @@
         <v>98778.67</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E44" s="2">
         <v>44376</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H44" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2415,16 +2607,16 @@
         <v>21226.54</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E45" s="2">
         <v>44385</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H45" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2438,19 +2630,19 @@
         <v>1018113</v>
       </c>
       <c r="D46" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E46" s="2">
         <v>44377</v>
       </c>
       <c r="F46" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="G46" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="H46" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2464,16 +2656,16 @@
         <v>145281</v>
       </c>
       <c r="D47" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E47" s="2">
         <v>44376</v>
       </c>
       <c r="F47" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H47" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2487,16 +2679,16 @@
         <v>437295</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E48" s="2">
         <v>44354</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H48" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2510,19 +2702,19 @@
         <v>48600</v>
       </c>
       <c r="D49" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E49" s="2">
         <v>44371</v>
       </c>
       <c r="F49" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="G49" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="H49" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2536,19 +2728,19 @@
         <v>78696</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="E50" s="2">
         <v>44371</v>
       </c>
       <c r="F50" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="G50" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="H50" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2562,16 +2754,16 @@
         <v>27360</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="E51" s="2">
         <v>44407</v>
       </c>
       <c r="F51" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H51" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2585,16 +2777,16 @@
         <v>54307</v>
       </c>
       <c r="D52" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E52" s="2">
         <v>44382</v>
       </c>
       <c r="F52" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H52" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2608,16 +2800,16 @@
         <v>18049.5</v>
       </c>
       <c r="D53" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E53" s="2">
         <v>44410</v>
       </c>
       <c r="F53" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2631,19 +2823,19 @@
         <v>426000</v>
       </c>
       <c r="D54" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="E54" s="2">
         <v>44374</v>
       </c>
       <c r="F54" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="G54" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="H54" t="s">
-        <v>316</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2657,16 +2849,16 @@
         <v>96164</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="E55" s="2">
         <v>44438</v>
       </c>
       <c r="F55" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H55" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2680,19 +2872,19 @@
         <v>21660</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E56" s="2">
         <v>44440</v>
       </c>
       <c r="F56" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="G56" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H56" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2706,16 +2898,16 @@
         <v>164796</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E57" s="2">
         <v>44432</v>
       </c>
       <c r="F57" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H57" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2729,16 +2921,16 @@
         <v>226636</v>
       </c>
       <c r="D58" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E58" s="2">
         <v>44439</v>
       </c>
       <c r="F58" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H58" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2752,16 +2944,16 @@
         <v>117341</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E59" s="2">
         <v>44462</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H59" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2775,16 +2967,16 @@
         <v>150297</v>
       </c>
       <c r="D60" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E60" s="2">
         <v>44461</v>
       </c>
       <c r="F60" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H60" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2798,16 +2990,16 @@
         <v>25140.84</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E61" s="2">
         <v>44463</v>
       </c>
       <c r="F61" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H61" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2821,16 +3013,16 @@
         <v>72578.35000000001</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E62" s="2">
         <v>44463</v>
       </c>
       <c r="F62" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H62" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2844,16 +3036,16 @@
         <v>30000</v>
       </c>
       <c r="D63" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="E63" s="2">
         <v>44454</v>
       </c>
       <c r="F63" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H63" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2867,16 +3059,16 @@
         <v>72674.92</v>
       </c>
       <c r="D64" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E64" s="2">
         <v>44469</v>
       </c>
       <c r="F64" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H64" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2890,16 +3082,16 @@
         <v>158752.08</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E65" s="2">
         <v>44483</v>
       </c>
       <c r="F65" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H65" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2913,16 +3105,16 @@
         <v>36348</v>
       </c>
       <c r="D66" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E66" s="2">
         <v>44463</v>
       </c>
       <c r="F66" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H66" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2936,16 +3128,16 @@
         <v>17258.07</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E67" s="2">
         <v>44489</v>
       </c>
       <c r="F67" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H67" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2959,16 +3151,16 @@
         <v>36000</v>
       </c>
       <c r="D68" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="E68" s="2">
         <v>44438</v>
       </c>
       <c r="F68" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H68" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2982,19 +3174,19 @@
         <v>321844</v>
       </c>
       <c r="D69" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E69" s="2">
         <v>44438</v>
       </c>
       <c r="F69" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="G69" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="H69" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3008,16 +3200,16 @@
         <v>30320</v>
       </c>
       <c r="D70" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E70" s="2">
         <v>44483</v>
       </c>
       <c r="F70" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H70" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3031,19 +3223,19 @@
         <v>61133.08</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E71" s="2">
         <v>44498</v>
       </c>
       <c r="F71" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="G71" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H71" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3057,16 +3249,16 @@
         <v>11524</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="E72" s="2">
         <v>44503</v>
       </c>
       <c r="F72" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H72" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3080,16 +3272,16 @@
         <v>35463.96</v>
       </c>
       <c r="D73" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E73" s="2">
         <v>44498</v>
       </c>
       <c r="F73" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H73" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3103,16 +3295,16 @@
         <v>123014.81</v>
       </c>
       <c r="D74" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E74" s="2">
         <v>44518</v>
       </c>
       <c r="F74" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H74" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3126,16 +3318,16 @@
         <v>97596.27</v>
       </c>
       <c r="D75" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E75" s="2">
         <v>44515</v>
       </c>
       <c r="F75" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H75" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3149,16 +3341,16 @@
         <v>18103.47</v>
       </c>
       <c r="D76" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E76" s="2">
         <v>44523</v>
       </c>
       <c r="F76" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H76" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3172,19 +3364,19 @@
         <v>21375.84</v>
       </c>
       <c r="D77" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="E77" s="2">
         <v>44505</v>
       </c>
       <c r="F77" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="G77" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H77" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3198,16 +3390,16 @@
         <v>77675.48</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E78" s="2">
         <v>44498</v>
       </c>
       <c r="F78" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H78" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3221,16 +3413,16 @@
         <v>137845</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E79" s="2">
         <v>44448</v>
       </c>
       <c r="F79" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H79" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3244,16 +3436,16 @@
         <v>387640</v>
       </c>
       <c r="D80" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E80" s="2">
         <v>44467</v>
       </c>
       <c r="F80" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H80" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3267,16 +3459,16 @@
         <v>65365</v>
       </c>
       <c r="D81" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E81" s="2">
         <v>44530</v>
       </c>
       <c r="F81" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H81" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3290,16 +3482,16 @@
         <v>59696</v>
       </c>
       <c r="D82" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E82" s="2">
         <v>44531</v>
       </c>
       <c r="F82" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H82" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3313,16 +3505,16 @@
         <v>33761</v>
       </c>
       <c r="D83" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E83" s="2">
         <v>44545</v>
       </c>
       <c r="G83" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H83" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3336,16 +3528,16 @@
         <v>33034</v>
       </c>
       <c r="D84" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E84" s="2">
         <v>44498</v>
       </c>
       <c r="F84" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H84" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3359,16 +3551,16 @@
         <v>162281</v>
       </c>
       <c r="D85" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E85" s="2">
         <v>44530</v>
       </c>
       <c r="F85" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H85" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3382,16 +3574,16 @@
         <v>22438</v>
       </c>
       <c r="D86" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E86" s="2">
         <v>44546</v>
       </c>
       <c r="F86" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H86" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3405,16 +3597,16 @@
         <v>18120</v>
       </c>
       <c r="D87" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="E87" s="2">
         <v>44498</v>
       </c>
       <c r="F87" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H87" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3428,16 +3620,16 @@
         <v>37004</v>
       </c>
       <c r="D88" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="E88" s="2">
         <v>44550</v>
       </c>
       <c r="F88" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H88" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3451,16 +3643,16 @@
         <v>55692.36</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E89" s="2">
         <v>44540</v>
       </c>
       <c r="F89" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H89" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3474,16 +3666,16 @@
         <v>58860</v>
       </c>
       <c r="D90" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E90" s="2">
         <v>44553</v>
       </c>
       <c r="F90" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H90" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3497,16 +3689,16 @@
         <v>1724952</v>
       </c>
       <c r="D91" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="E91" s="2">
         <v>44494</v>
       </c>
       <c r="F91" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H91" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3520,16 +3712,16 @@
         <v>156000</v>
       </c>
       <c r="D92" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="E92" s="2">
         <v>44466</v>
       </c>
       <c r="F92" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="H92" t="s">
-        <v>317</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3543,16 +3735,16 @@
         <v>1783320</v>
       </c>
       <c r="D93" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E93" s="2">
         <v>44557</v>
       </c>
       <c r="F93" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H93" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3566,19 +3758,19 @@
         <v>44529.04</v>
       </c>
       <c r="D94" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E94" s="2">
         <v>44583</v>
       </c>
       <c r="F94" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="G94" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="H94" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3592,16 +3784,16 @@
         <v>195393.13</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E95" s="2">
         <v>44587</v>
       </c>
       <c r="F95" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="H95" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3615,16 +3807,16 @@
         <v>16357.92</v>
       </c>
       <c r="D96" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E96" s="2">
         <v>44589</v>
       </c>
       <c r="F96" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H96" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3638,19 +3830,19 @@
         <v>86395.57000000001</v>
       </c>
       <c r="D97" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E97" s="2">
         <v>44592</v>
       </c>
       <c r="F97" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="G97" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="H97" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3664,16 +3856,16 @@
         <v>65843.74000000001</v>
       </c>
       <c r="D98" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E98" s="2">
         <v>44592</v>
       </c>
       <c r="F98" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="H98" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3687,16 +3879,16 @@
         <v>44071.91</v>
       </c>
       <c r="D99" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E99" s="2">
         <v>44593</v>
       </c>
       <c r="F99" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H99" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3710,16 +3902,16 @@
         <v>18108</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E100" s="2">
         <v>44594</v>
       </c>
       <c r="F100" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H100" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3733,16 +3925,16 @@
         <v>123510</v>
       </c>
       <c r="D101" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E101" s="2">
         <v>44594</v>
       </c>
       <c r="F101" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H101" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3756,16 +3948,16 @@
         <v>32379.56</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E102" s="2">
         <v>44599</v>
       </c>
       <c r="F102" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="H102" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3779,19 +3971,19 @@
         <v>2206300</v>
       </c>
       <c r="D103" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E103" s="2">
         <v>44599</v>
       </c>
       <c r="F103" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="G103" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="H103" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3805,16 +3997,16 @@
         <v>59444.88</v>
       </c>
       <c r="D104" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E104" s="2">
         <v>44600</v>
       </c>
       <c r="F104" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H104" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3828,16 +4020,16 @@
         <v>27046.56</v>
       </c>
       <c r="D105" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E105" s="2">
         <v>44601</v>
       </c>
       <c r="F105" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H105" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3851,16 +4043,16 @@
         <v>78090</v>
       </c>
       <c r="D106" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E106" s="2">
         <v>44602</v>
       </c>
       <c r="F106" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H106" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3874,16 +4066,16 @@
         <v>131316</v>
       </c>
       <c r="D107" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E107" s="2">
         <v>44609</v>
       </c>
       <c r="F107" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H107" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3897,16 +4089,16 @@
         <v>26775.27</v>
       </c>
       <c r="D108" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E108" s="2">
         <v>44609</v>
       </c>
       <c r="F108" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H108" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3920,16 +4112,16 @@
         <v>21714.47</v>
       </c>
       <c r="D109" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E109" s="2">
         <v>44615</v>
       </c>
       <c r="F109" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H109" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3943,16 +4135,16 @@
         <v>284992.08</v>
       </c>
       <c r="D110" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E110" s="2">
         <v>44615</v>
       </c>
       <c r="F110" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H110" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3966,16 +4158,16 @@
         <v>79981.99000000001</v>
       </c>
       <c r="D111" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E111" s="2">
         <v>44617</v>
       </c>
       <c r="F111" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H111" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3989,16 +4181,16 @@
         <v>73747</v>
       </c>
       <c r="D112" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="E112" s="2">
         <v>44617</v>
       </c>
       <c r="F112" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H112" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4012,16 +4204,16 @@
         <v>154056.97</v>
       </c>
       <c r="D113" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E113" s="2">
         <v>44620</v>
       </c>
       <c r="F113" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H113" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4035,16 +4227,16 @@
         <v>22255.93</v>
       </c>
       <c r="D114" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E114" s="2">
         <v>44620</v>
       </c>
       <c r="F114" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H114" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4058,16 +4250,16 @@
         <v>12087</v>
       </c>
       <c r="D115" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="E115" s="2">
         <v>44620</v>
       </c>
       <c r="F115" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H115" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4081,16 +4273,16 @@
         <v>229700</v>
       </c>
       <c r="D116" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E116" s="2">
         <v>44630</v>
       </c>
       <c r="F116" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H116" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4104,16 +4296,16 @@
         <v>153000</v>
       </c>
       <c r="D117" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="E117" s="2">
         <v>44631</v>
       </c>
       <c r="F117" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H117" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4127,16 +4319,16 @@
         <v>4467</v>
       </c>
       <c r="D118" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E118" s="2">
         <v>44634</v>
       </c>
       <c r="F118" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H118" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4150,16 +4342,16 @@
         <v>46500</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E119" s="2">
         <v>44637</v>
       </c>
       <c r="F119" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H119" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4173,16 +4365,16 @@
         <v>113561</v>
       </c>
       <c r="D120" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="E120" s="2">
         <v>44643</v>
       </c>
       <c r="F120" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H120" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4196,16 +4388,16 @@
         <v>50075</v>
       </c>
       <c r="D121" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E121" s="2">
         <v>44645</v>
       </c>
       <c r="F121" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="H121" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4219,16 +4411,16 @@
         <v>264132</v>
       </c>
       <c r="D122" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E122" s="2">
         <v>44645</v>
       </c>
       <c r="F122" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H122" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4242,16 +4434,16 @@
         <v>95656.64999999999</v>
       </c>
       <c r="D123" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E123" s="2">
         <v>44649</v>
       </c>
       <c r="F123" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H123" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4265,16 +4457,16 @@
         <v>19712.96</v>
       </c>
       <c r="D124" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E124" s="2">
         <v>44649</v>
       </c>
       <c r="F124" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H124" t="s">
-        <v>319</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4288,16 +4480,16 @@
         <v>5520</v>
       </c>
       <c r="D125" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="E125" s="2">
         <v>44652</v>
       </c>
       <c r="F125" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H125" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4311,19 +4503,19 @@
         <v>15000</v>
       </c>
       <c r="D126" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E126" s="2">
         <v>44655</v>
       </c>
       <c r="F126" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="G126" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H126" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4337,16 +4529,16 @@
         <v>44929.04</v>
       </c>
       <c r="D127" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E127" s="2">
         <v>44655</v>
       </c>
       <c r="F127" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="H127" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4360,16 +4552,16 @@
         <v>2164926</v>
       </c>
       <c r="D128" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E128" s="2">
         <v>44656</v>
       </c>
       <c r="F128" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H128" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4383,16 +4575,16 @@
         <v>5500</v>
       </c>
       <c r="D129" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="E129" s="2">
         <v>44672</v>
       </c>
       <c r="F129" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H129" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4406,16 +4598,16 @@
         <v>80534</v>
       </c>
       <c r="D130" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E130" s="2">
         <v>44681</v>
       </c>
       <c r="F130" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="H130" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4429,16 +4621,16 @@
         <v>58657</v>
       </c>
       <c r="D131" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="E131" s="2">
         <v>44685</v>
       </c>
       <c r="F131" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H131" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4452,16 +4644,16 @@
         <v>259880</v>
       </c>
       <c r="D132" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="E132" s="2">
         <v>44692</v>
       </c>
       <c r="F132" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H132" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4475,16 +4667,16 @@
         <v>44851</v>
       </c>
       <c r="D133" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="E133" s="2">
         <v>44719</v>
       </c>
       <c r="F133" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="H133" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4498,16 +4690,16 @@
         <v>15000</v>
       </c>
       <c r="D134" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E134" s="2">
         <v>44719</v>
       </c>
       <c r="F134" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H134" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4521,16 +4713,16 @@
         <v>36000</v>
       </c>
       <c r="D135" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="E135" s="2">
         <v>44732</v>
       </c>
       <c r="F135" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H135" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4544,16 +4736,16 @@
         <v>85765.3</v>
       </c>
       <c r="D136" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E136" s="2">
         <v>44736</v>
       </c>
       <c r="F136" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H136" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4567,16 +4759,16 @@
         <v>41918.41</v>
       </c>
       <c r="D137" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E137" s="2">
         <v>44742</v>
       </c>
       <c r="F137" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H137" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4590,16 +4782,16 @@
         <v>141922</v>
       </c>
       <c r="D138" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E138" s="2">
         <v>44742</v>
       </c>
       <c r="F138" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H138" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4613,16 +4805,16 @@
         <v>36000</v>
       </c>
       <c r="D139" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E139" s="2">
         <v>44742</v>
       </c>
       <c r="F139" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H139" t="s">
-        <v>320</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4636,16 +4828,16 @@
         <v>53378.16</v>
       </c>
       <c r="D140" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E140" s="2">
         <v>44749</v>
       </c>
       <c r="F140" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H140" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4659,16 +4851,16 @@
         <v>40191.95</v>
       </c>
       <c r="D141" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E141" s="2">
         <v>44753</v>
       </c>
       <c r="F141" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H141" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4682,19 +4874,19 @@
         <v>33339.71</v>
       </c>
       <c r="D142" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E142" s="2">
         <v>44774</v>
       </c>
       <c r="F142" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="G142" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H142" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4708,16 +4900,16 @@
         <v>12000</v>
       </c>
       <c r="D143" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E143" s="2">
         <v>44775</v>
       </c>
       <c r="F143" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H143" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4731,16 +4923,16 @@
         <v>142246</v>
       </c>
       <c r="D144" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E144" s="2">
         <v>44783</v>
       </c>
       <c r="F144" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H144" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4754,16 +4946,16 @@
         <v>57060</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="E145" s="2">
         <v>44784</v>
       </c>
       <c r="F145" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="H145" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4777,16 +4969,16 @@
         <v>24581</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E146" s="2">
         <v>44810</v>
       </c>
       <c r="F146" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H146" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4800,16 +4992,16 @@
         <v>61008</v>
       </c>
       <c r="D147" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="E147" s="2">
         <v>44811</v>
       </c>
       <c r="F147" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H147" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4823,16 +5015,16 @@
         <v>108824</v>
       </c>
       <c r="D148" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="E148" s="2">
         <v>44816</v>
       </c>
       <c r="F148" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H148" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4846,16 +5038,16 @@
         <v>18449</v>
       </c>
       <c r="D149" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E149" s="2">
         <v>44820</v>
       </c>
       <c r="F149" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H149" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4869,10 +5061,10 @@
         <v>9000</v>
       </c>
       <c r="D150" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="F150" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4886,16 +5078,16 @@
         <v>31068</v>
       </c>
       <c r="D151" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E151" s="2">
         <v>44831</v>
       </c>
       <c r="F151" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H151" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4909,16 +5101,16 @@
         <v>48312</v>
       </c>
       <c r="D152" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="E152" s="2">
         <v>44833</v>
       </c>
       <c r="F152" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H152" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4932,16 +5124,16 @@
         <v>310116</v>
       </c>
       <c r="D153" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E153" s="2">
         <v>44823</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H153" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4955,19 +5147,19 @@
         <v>145870</v>
       </c>
       <c r="D154" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="E154" s="2">
         <v>44834</v>
       </c>
       <c r="F154" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="G154" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H154" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4981,16 +5173,16 @@
         <v>61182</v>
       </c>
       <c r="D155" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E155" s="2">
         <v>44858</v>
       </c>
       <c r="F155" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H155" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5004,16 +5196,16 @@
         <v>564456</v>
       </c>
       <c r="D156" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E156" s="2">
         <v>44834</v>
       </c>
       <c r="F156" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="H156" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5027,16 +5219,16 @@
         <v>15360</v>
       </c>
       <c r="D157" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E157" s="2">
         <v>44852</v>
       </c>
       <c r="F157" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H157" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5050,16 +5242,16 @@
         <v>17098</v>
       </c>
       <c r="D158" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E158" s="2">
         <v>44861</v>
       </c>
       <c r="F158" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H158" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5073,16 +5265,16 @@
         <v>47117</v>
       </c>
       <c r="D159" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E159" s="2">
         <v>44862</v>
       </c>
       <c r="F159" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H159" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5096,16 +5288,16 @@
         <v>71046</v>
       </c>
       <c r="D160" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E160" s="2">
         <v>44865</v>
       </c>
       <c r="F160" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H160" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5119,16 +5311,16 @@
         <v>16796</v>
       </c>
       <c r="D161" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="E161" s="2">
         <v>44865</v>
       </c>
       <c r="F161" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="H161" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5142,16 +5334,16 @@
         <v>30806</v>
       </c>
       <c r="D162" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E162" s="2">
         <v>44868</v>
       </c>
       <c r="F162" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H162" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5165,16 +5357,16 @@
         <v>42583</v>
       </c>
       <c r="D163" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E163" s="2">
         <v>44872</v>
       </c>
       <c r="F163" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="H163" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5188,16 +5380,16 @@
         <v>15000</v>
       </c>
       <c r="D164" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E164" s="2">
         <v>44837</v>
       </c>
       <c r="F164" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="H164" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5211,16 +5403,16 @@
         <v>20172</v>
       </c>
       <c r="D165" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E165" s="2">
         <v>44873</v>
       </c>
       <c r="F165" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="H165" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5234,19 +5426,19 @@
         <v>1033505</v>
       </c>
       <c r="D166" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E166" s="2">
         <v>44891</v>
       </c>
       <c r="F166" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="G166" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="H166" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5260,19 +5452,19 @@
         <v>101508</v>
       </c>
       <c r="D167" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E167" s="2">
         <v>44875</v>
       </c>
       <c r="F167" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="G167" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H167" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5286,16 +5478,16 @@
         <v>289659</v>
       </c>
       <c r="D168" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E168" s="2">
         <v>44890</v>
       </c>
       <c r="F168" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H168" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5309,16 +5501,16 @@
         <v>44550</v>
       </c>
       <c r="D169" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E169" s="2">
         <v>44894</v>
       </c>
       <c r="F169" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H169" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5332,16 +5524,16 @@
         <v>50482.04</v>
       </c>
       <c r="D170" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="E170" s="2">
         <v>44831</v>
       </c>
       <c r="F170" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="H170" t="s">
-        <v>321</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5355,16 +5547,16 @@
         <v>186313</v>
       </c>
       <c r="D171" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E171" s="2">
         <v>44895</v>
       </c>
       <c r="F171" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H171" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5378,16 +5570,16 @@
         <v>3432</v>
       </c>
       <c r="D172" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="E172" s="2">
         <v>44895</v>
       </c>
       <c r="F172" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H172" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5401,16 +5593,16 @@
         <v>24000</v>
       </c>
       <c r="D173" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E173" s="2">
         <v>44895</v>
       </c>
       <c r="F173" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="H173" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5424,16 +5616,16 @@
         <v>6072</v>
       </c>
       <c r="D174" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E174" s="2">
         <v>44915</v>
       </c>
       <c r="F174" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="H174" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5447,19 +5639,19 @@
         <v>90042.39999999999</v>
       </c>
       <c r="D175" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E175" s="2">
         <v>44916</v>
       </c>
       <c r="F175" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="G175" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="H175" t="s">
-        <v>322</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5473,13 +5665,13 @@
         <v>4512</v>
       </c>
       <c r="D176" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E176" s="2">
         <v>44928</v>
       </c>
       <c r="H176" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5493,16 +5685,16 @@
         <v>52852.17</v>
       </c>
       <c r="D177" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E177" s="2">
         <v>44936</v>
       </c>
       <c r="G177" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H177" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5516,13 +5708,13 @@
         <v>150188</v>
       </c>
       <c r="D178" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E178" s="2">
         <v>44939</v>
       </c>
       <c r="H178" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5536,13 +5728,13 @@
         <v>199392.4</v>
       </c>
       <c r="D179" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E179" s="2">
         <v>44950</v>
       </c>
       <c r="H179" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5556,13 +5748,13 @@
         <v>6137</v>
       </c>
       <c r="D180" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E180" s="2">
         <v>44951</v>
       </c>
       <c r="H180" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5576,7 +5768,7 @@
         <v>128134</v>
       </c>
       <c r="D181" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5590,13 +5782,13 @@
         <v>461390</v>
       </c>
       <c r="D182" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E182" s="2">
         <v>44952</v>
       </c>
       <c r="H182" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5610,13 +5802,13 @@
         <v>32723</v>
       </c>
       <c r="D183" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E183" s="2">
         <v>44956</v>
       </c>
       <c r="H183" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5630,13 +5822,13 @@
         <v>179010</v>
       </c>
       <c r="D184" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E184" s="2">
         <v>44972</v>
       </c>
       <c r="H184" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5650,13 +5842,13 @@
         <v>207498.12</v>
       </c>
       <c r="D185" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E185" s="2">
         <v>44978</v>
       </c>
       <c r="H185" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5670,13 +5862,13 @@
         <v>99798</v>
       </c>
       <c r="D186" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="E186" s="2">
         <v>44979</v>
       </c>
       <c r="H186" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5690,13 +5882,13 @@
         <v>6564</v>
       </c>
       <c r="D187" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E187" s="2">
         <v>44979</v>
       </c>
       <c r="H187" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5710,13 +5902,13 @@
         <v>303998.52</v>
       </c>
       <c r="D188" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E188" s="2">
         <v>44984</v>
       </c>
       <c r="H188" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5730,13 +5922,13 @@
         <v>160611</v>
       </c>
       <c r="D189" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E189" s="2">
         <v>45014</v>
       </c>
       <c r="H189" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5750,13 +5942,13 @@
         <v>58165</v>
       </c>
       <c r="D190" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E190" s="2">
         <v>45009</v>
       </c>
       <c r="H190" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5770,13 +5962,13 @@
         <v>74171</v>
       </c>
       <c r="D191" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E191" s="2">
         <v>45015</v>
       </c>
       <c r="H191" t="s">
-        <v>323</v>
+        <v>384</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5790,13 +5982,13 @@
         <v>4513</v>
       </c>
       <c r="D192" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E192" s="2">
         <v>45027</v>
       </c>
       <c r="H192" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5810,13 +6002,13 @@
         <v>132194</v>
       </c>
       <c r="D193" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E193" s="2">
         <v>45035</v>
       </c>
       <c r="H193" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5830,13 +6022,13 @@
         <v>71414.8</v>
       </c>
       <c r="D194" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E194" s="2">
         <v>45029</v>
       </c>
       <c r="H194" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5850,13 +6042,13 @@
         <v>32046.79</v>
       </c>
       <c r="D195" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E195" s="2">
         <v>45043</v>
       </c>
       <c r="H195" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5870,13 +6062,13 @@
         <v>110646</v>
       </c>
       <c r="D196" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="E196" s="2">
         <v>45047</v>
       </c>
       <c r="H196" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5890,13 +6082,13 @@
         <v>71077.63</v>
       </c>
       <c r="D197" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E197" s="2">
         <v>45047</v>
       </c>
       <c r="H197" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5910,13 +6102,13 @@
         <v>18378</v>
       </c>
       <c r="D198" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="E198" s="2">
         <v>45048</v>
       </c>
       <c r="H198" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5930,13 +6122,13 @@
         <v>171628</v>
       </c>
       <c r="D199" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E199" s="2">
         <v>45043</v>
       </c>
       <c r="H199" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5950,13 +6142,13 @@
         <v>303577</v>
       </c>
       <c r="D200" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="E200" s="2">
         <v>45020</v>
       </c>
       <c r="H200" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5970,13 +6162,13 @@
         <v>6277</v>
       </c>
       <c r="D201" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="E201" s="2">
         <v>45048</v>
       </c>
       <c r="H201" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5990,13 +6182,13 @@
         <v>125865</v>
       </c>
       <c r="D202" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E202" s="2">
         <v>45044</v>
       </c>
       <c r="H202" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6010,13 +6202,13 @@
         <v>236370</v>
       </c>
       <c r="D203" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E203" s="2">
         <v>45043</v>
       </c>
       <c r="H203" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6030,13 +6222,13 @@
         <v>140432</v>
       </c>
       <c r="D204" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E204" s="2">
         <v>45061</v>
       </c>
       <c r="H204" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6050,13 +6242,13 @@
         <v>30453</v>
       </c>
       <c r="D205" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E205" s="2">
         <v>45070</v>
       </c>
       <c r="H205" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6070,13 +6262,13 @@
         <v>104340</v>
       </c>
       <c r="D206" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="E206" s="2">
         <v>45070</v>
       </c>
       <c r="H206" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6090,13 +6282,13 @@
         <v>76044</v>
       </c>
       <c r="D207" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E207" s="2">
         <v>45072</v>
       </c>
       <c r="H207" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6110,13 +6302,13 @@
         <v>57600</v>
       </c>
       <c r="D208" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="E208" s="2">
         <v>45072</v>
       </c>
       <c r="H208" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6130,13 +6322,13 @@
         <v>80135</v>
       </c>
       <c r="D209" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E209" s="2">
         <v>45076</v>
       </c>
       <c r="H209" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6150,13 +6342,13 @@
         <v>23352</v>
       </c>
       <c r="D210" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="E210" s="2">
         <v>45090</v>
       </c>
       <c r="H210" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6170,13 +6362,13 @@
         <v>46106</v>
       </c>
       <c r="D211" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E211" s="2">
         <v>45091</v>
       </c>
       <c r="H211" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6190,13 +6382,13 @@
         <v>44064</v>
       </c>
       <c r="D212" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E212" s="2">
         <v>45092</v>
       </c>
       <c r="H212" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6210,13 +6402,13 @@
         <v>32832</v>
       </c>
       <c r="D213" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="E213" s="2">
         <v>45092</v>
       </c>
       <c r="H213" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6230,13 +6422,13 @@
         <v>19530</v>
       </c>
       <c r="D214" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="E214" s="2">
         <v>45083</v>
       </c>
       <c r="H214" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6250,13 +6442,13 @@
         <v>100068</v>
       </c>
       <c r="D215" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E215" s="2">
         <v>45113</v>
       </c>
       <c r="H215" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6270,13 +6462,13 @@
         <v>74972.74000000001</v>
       </c>
       <c r="D216" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E216" s="2">
         <v>45104</v>
       </c>
       <c r="H216" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6290,16 +6482,16 @@
         <v>6371</v>
       </c>
       <c r="D217" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E217" s="2">
         <v>45106</v>
       </c>
       <c r="G217" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="H217" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6313,13 +6505,13 @@
         <v>98144</v>
       </c>
       <c r="D218" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="E218" s="2">
         <v>45106</v>
       </c>
       <c r="H218" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6333,13 +6525,13 @@
         <v>174121</v>
       </c>
       <c r="D219" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E219" s="2">
         <v>45112</v>
       </c>
       <c r="H219" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6353,13 +6545,13 @@
         <v>38576</v>
       </c>
       <c r="D220" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E220" s="2">
         <v>45114</v>
       </c>
       <c r="H220" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6373,13 +6565,13 @@
         <v>25546.77</v>
       </c>
       <c r="D221" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E221" s="2">
         <v>45103</v>
       </c>
       <c r="H221" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6393,13 +6585,13 @@
         <v>193200.15</v>
       </c>
       <c r="D222" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E222" s="2">
         <v>45103</v>
       </c>
       <c r="H222" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6413,13 +6605,13 @@
         <v>87298.83</v>
       </c>
       <c r="D223" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E223" s="2">
         <v>45145</v>
       </c>
       <c r="H223" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6433,13 +6625,13 @@
         <v>70780</v>
       </c>
       <c r="D224" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="E224" s="2">
         <v>45145</v>
       </c>
       <c r="H224" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6453,13 +6645,13 @@
         <v>795170.24</v>
       </c>
       <c r="D225" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E225" s="2">
         <v>45154</v>
       </c>
       <c r="H225" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6473,13 +6665,13 @@
         <v>129827.5</v>
       </c>
       <c r="D226" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E226" s="2">
         <v>45160</v>
       </c>
       <c r="H226" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6493,13 +6685,13 @@
         <v>278110</v>
       </c>
       <c r="D227" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E227" s="2">
         <v>45112</v>
       </c>
       <c r="H227" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6513,16 +6705,16 @@
         <v>75401.86</v>
       </c>
       <c r="D228" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E228" s="2">
         <v>45167</v>
       </c>
       <c r="G228" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="H228" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6536,13 +6728,13 @@
         <v>129351.38</v>
       </c>
       <c r="D229" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E229" s="2">
         <v>45169</v>
       </c>
       <c r="H229" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6556,13 +6748,13 @@
         <v>146634</v>
       </c>
       <c r="D230" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E230" s="2">
         <v>45169</v>
       </c>
       <c r="H230" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6576,13 +6768,13 @@
         <v>95742</v>
       </c>
       <c r="D231" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E231" s="2">
         <v>45169</v>
       </c>
       <c r="H231" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6596,16 +6788,16 @@
         <v>44547</v>
       </c>
       <c r="D232" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E232" s="2">
         <v>45177</v>
       </c>
       <c r="G232" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="H232" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6619,13 +6811,13 @@
         <v>69120</v>
       </c>
       <c r="D233" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E233" s="2">
         <v>45044</v>
       </c>
       <c r="H233" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6639,16 +6831,16 @@
         <v>21650.08</v>
       </c>
       <c r="D234" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E234" s="2">
         <v>45182</v>
       </c>
       <c r="G234" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="H234" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6662,13 +6854,13 @@
         <v>120288</v>
       </c>
       <c r="D235" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="E235" s="2">
         <v>45183</v>
       </c>
       <c r="H235" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6682,16 +6874,16 @@
         <v>102035.85</v>
       </c>
       <c r="D236" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E236" s="2">
         <v>45196</v>
       </c>
       <c r="G236" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H236" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6705,16 +6897,16 @@
         <v>83103.05</v>
       </c>
       <c r="D237" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E237" s="2">
         <v>45198</v>
       </c>
       <c r="G237" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="H237" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6728,16 +6920,16 @@
         <v>28521.38</v>
       </c>
       <c r="D238" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E238" s="2">
         <v>45205</v>
       </c>
       <c r="G238" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H238" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6751,16 +6943,16 @@
         <v>30097</v>
       </c>
       <c r="D239" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E239" s="2">
         <v>45205</v>
       </c>
       <c r="G239" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H239" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6774,16 +6966,16 @@
         <v>85832.52</v>
       </c>
       <c r="D240" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E240" s="2">
         <v>45205</v>
       </c>
       <c r="G240" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="H240" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6797,13 +6989,13 @@
         <v>60860</v>
       </c>
       <c r="D241" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E241" s="2">
         <v>45168</v>
       </c>
       <c r="H241" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6817,13 +7009,13 @@
         <v>65688</v>
       </c>
       <c r="D242" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="E242" s="2">
         <v>45211</v>
       </c>
       <c r="H242" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6837,13 +7029,13 @@
         <v>39408</v>
       </c>
       <c r="D243" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="E243" s="2">
         <v>45211</v>
       </c>
       <c r="H243" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6857,16 +7049,16 @@
         <v>132000</v>
       </c>
       <c r="D244" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E244" s="2">
         <v>45230</v>
       </c>
       <c r="G244" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="H244" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6880,13 +7072,13 @@
         <v>116715</v>
       </c>
       <c r="D245" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E245" s="2">
         <v>45212</v>
       </c>
       <c r="H245" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6900,13 +7092,13 @@
         <v>128494</v>
       </c>
       <c r="D246" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="E246" s="2">
         <v>45231</v>
       </c>
       <c r="H246" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6920,13 +7112,13 @@
         <v>20165</v>
       </c>
       <c r="D247" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="E247" s="2">
         <v>45239</v>
       </c>
       <c r="H247" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6940,16 +7132,16 @@
         <v>163235.74</v>
       </c>
       <c r="D248" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="E248" s="2">
         <v>45243</v>
       </c>
       <c r="G248" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="H248" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6963,16 +7155,16 @@
         <v>40172</v>
       </c>
       <c r="D249" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E249" s="2">
         <v>45243</v>
       </c>
       <c r="G249" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="H249" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6986,13 +7178,13 @@
         <v>23777</v>
       </c>
       <c r="D250" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E250" s="2">
         <v>45257</v>
       </c>
       <c r="H250" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7006,13 +7198,13 @@
         <v>31857</v>
       </c>
       <c r="D251" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E251" s="2">
         <v>45245</v>
       </c>
       <c r="H251" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7026,13 +7218,13 @@
         <v>109559.83</v>
       </c>
       <c r="D252" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E252" s="2">
         <v>45245</v>
       </c>
       <c r="H252" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7046,16 +7238,16 @@
         <v>22553</v>
       </c>
       <c r="D253" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E253" s="2">
         <v>45268</v>
       </c>
       <c r="G253" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="H253" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7069,13 +7261,13 @@
         <v>40892</v>
       </c>
       <c r="D254" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E254" s="2">
         <v>45272</v>
       </c>
       <c r="H254" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7089,13 +7281,13 @@
         <v>128519</v>
       </c>
       <c r="D255" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="E255" s="2">
         <v>45279</v>
       </c>
       <c r="H255" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7109,13 +7301,13 @@
         <v>24550</v>
       </c>
       <c r="D256" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="E256" s="2">
         <v>45281</v>
       </c>
       <c r="H256" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7129,13 +7321,1238 @@
         <v>20119</v>
       </c>
       <c r="D257" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E257" s="2">
         <v>45289</v>
       </c>
       <c r="H257" t="s">
-        <v>326</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" t="s">
+        <v>254</v>
+      </c>
+      <c r="B258">
+        <v>2024</v>
+      </c>
+      <c r="C258">
+        <v>76625</v>
+      </c>
+      <c r="D258" t="s">
+        <v>311</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45301</v>
+      </c>
+      <c r="H258" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>255</v>
+      </c>
+      <c r="B259">
+        <v>2024</v>
+      </c>
+      <c r="C259">
+        <v>40925</v>
+      </c>
+      <c r="D259" t="s">
+        <v>311</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45301</v>
+      </c>
+      <c r="H259" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>256</v>
+      </c>
+      <c r="B260">
+        <v>2024</v>
+      </c>
+      <c r="C260">
+        <v>481884</v>
+      </c>
+      <c r="D260" t="s">
+        <v>313</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45411</v>
+      </c>
+      <c r="H260" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" t="s">
+        <v>257</v>
+      </c>
+      <c r="B261">
+        <v>2024</v>
+      </c>
+      <c r="C261">
+        <v>396212.06</v>
+      </c>
+      <c r="D261" t="s">
+        <v>311</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45322</v>
+      </c>
+      <c r="G261" t="s">
+        <v>362</v>
+      </c>
+      <c r="H261" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>258</v>
+      </c>
+      <c r="B262">
+        <v>2024</v>
+      </c>
+      <c r="C262">
+        <v>59316</v>
+      </c>
+      <c r="D262" t="s">
+        <v>329</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45345</v>
+      </c>
+      <c r="H262" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>259</v>
+      </c>
+      <c r="B263">
+        <v>2024</v>
+      </c>
+      <c r="C263">
+        <v>334560</v>
+      </c>
+      <c r="D263" t="s">
+        <v>313</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45407</v>
+      </c>
+      <c r="H263" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" t="s">
+        <v>260</v>
+      </c>
+      <c r="B264">
+        <v>2024</v>
+      </c>
+      <c r="C264">
+        <v>299164.71</v>
+      </c>
+      <c r="D264" t="s">
+        <v>310</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G264" t="s">
+        <v>362</v>
+      </c>
+      <c r="H264" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>261</v>
+      </c>
+      <c r="B265">
+        <v>2024</v>
+      </c>
+      <c r="C265">
+        <v>835734</v>
+      </c>
+      <c r="D265" t="s">
+        <v>329</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45351</v>
+      </c>
+      <c r="G265" t="s">
+        <v>362</v>
+      </c>
+      <c r="H265" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>262</v>
+      </c>
+      <c r="B266">
+        <v>2024</v>
+      </c>
+      <c r="C266">
+        <v>215092.8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>310</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45412</v>
+      </c>
+      <c r="H266" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" t="s">
+        <v>263</v>
+      </c>
+      <c r="B267">
+        <v>2024</v>
+      </c>
+      <c r="C267">
+        <v>207826.07</v>
+      </c>
+      <c r="D267" t="s">
+        <v>309</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45349</v>
+      </c>
+      <c r="G267" t="s">
+        <v>366</v>
+      </c>
+      <c r="H267" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>264</v>
+      </c>
+      <c r="B268">
+        <v>2024</v>
+      </c>
+      <c r="C268">
+        <v>498945</v>
+      </c>
+      <c r="D268" t="s">
+        <v>329</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45357</v>
+      </c>
+      <c r="H268" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>265</v>
+      </c>
+      <c r="B269">
+        <v>2024</v>
+      </c>
+      <c r="C269">
+        <v>175476</v>
+      </c>
+      <c r="D269" t="s">
+        <v>313</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45428</v>
+      </c>
+      <c r="H269" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" t="s">
+        <v>266</v>
+      </c>
+      <c r="B270">
+        <v>2024</v>
+      </c>
+      <c r="C270">
+        <v>141595.93</v>
+      </c>
+      <c r="D270" t="s">
+        <v>310</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45442</v>
+      </c>
+      <c r="G270" t="s">
+        <v>372</v>
+      </c>
+      <c r="H270" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>267</v>
+      </c>
+      <c r="B271">
+        <v>2024</v>
+      </c>
+      <c r="C271">
+        <v>32083.08</v>
+      </c>
+      <c r="D271" t="s">
+        <v>311</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45359</v>
+      </c>
+      <c r="H271" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" t="s">
+        <v>268</v>
+      </c>
+      <c r="B272">
+        <v>2024</v>
+      </c>
+      <c r="C272">
+        <v>127477</v>
+      </c>
+      <c r="D272" t="s">
+        <v>343</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45295</v>
+      </c>
+      <c r="H272" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" t="s">
+        <v>269</v>
+      </c>
+      <c r="B273">
+        <v>2024</v>
+      </c>
+      <c r="C273">
+        <v>113993.82</v>
+      </c>
+      <c r="D273" t="s">
+        <v>310</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45363</v>
+      </c>
+      <c r="H273" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>270</v>
+      </c>
+      <c r="B274">
+        <v>2024</v>
+      </c>
+      <c r="C274">
+        <v>101832</v>
+      </c>
+      <c r="D274" t="s">
+        <v>344</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45438</v>
+      </c>
+      <c r="H274" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" t="s">
+        <v>271</v>
+      </c>
+      <c r="B275">
+        <v>2024</v>
+      </c>
+      <c r="C275">
+        <v>47491.62</v>
+      </c>
+      <c r="D275" t="s">
+        <v>311</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45370</v>
+      </c>
+      <c r="H275" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" t="s">
+        <v>272</v>
+      </c>
+      <c r="B276">
+        <v>2024</v>
+      </c>
+      <c r="C276">
+        <v>66672</v>
+      </c>
+      <c r="D276" t="s">
+        <v>320</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45407</v>
+      </c>
+      <c r="H276" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>273</v>
+      </c>
+      <c r="B277">
+        <v>2024</v>
+      </c>
+      <c r="C277">
+        <v>16783.1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>311</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45372</v>
+      </c>
+      <c r="G277" t="s">
+        <v>363</v>
+      </c>
+      <c r="H277" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" t="s">
+        <v>274</v>
+      </c>
+      <c r="B278">
+        <v>2024</v>
+      </c>
+      <c r="C278">
+        <v>186200</v>
+      </c>
+      <c r="D278" t="s">
+        <v>311</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45373</v>
+      </c>
+      <c r="G278" t="s">
+        <v>362</v>
+      </c>
+      <c r="H278" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" t="s">
+        <v>275</v>
+      </c>
+      <c r="B279">
+        <v>2024</v>
+      </c>
+      <c r="C279">
+        <v>50892</v>
+      </c>
+      <c r="D279" t="s">
+        <v>312</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45400</v>
+      </c>
+      <c r="H279" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>276</v>
+      </c>
+      <c r="B280">
+        <v>2024</v>
+      </c>
+      <c r="C280">
+        <v>218081.92</v>
+      </c>
+      <c r="D280" t="s">
+        <v>311</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45386</v>
+      </c>
+      <c r="H280" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" t="s">
+        <v>277</v>
+      </c>
+      <c r="B281">
+        <v>2024</v>
+      </c>
+      <c r="C281">
+        <v>140256.16</v>
+      </c>
+      <c r="D281" t="s">
+        <v>329</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45399</v>
+      </c>
+      <c r="G281" t="s">
+        <v>373</v>
+      </c>
+      <c r="H281" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" t="s">
+        <v>278</v>
+      </c>
+      <c r="B282">
+        <v>2024</v>
+      </c>
+      <c r="C282">
+        <v>40956</v>
+      </c>
+      <c r="D282" t="s">
+        <v>320</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45329</v>
+      </c>
+      <c r="H282" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>279</v>
+      </c>
+      <c r="B283">
+        <v>2024</v>
+      </c>
+      <c r="C283">
+        <v>18300</v>
+      </c>
+      <c r="D283" t="s">
+        <v>311</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45400</v>
+      </c>
+      <c r="H283" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" t="s">
+        <v>280</v>
+      </c>
+      <c r="B284">
+        <v>2024</v>
+      </c>
+      <c r="C284">
+        <v>33984</v>
+      </c>
+      <c r="D284" t="s">
+        <v>320</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45446</v>
+      </c>
+      <c r="H284" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" t="s">
+        <v>281</v>
+      </c>
+      <c r="B285">
+        <v>2024</v>
+      </c>
+      <c r="C285">
+        <v>25747.01</v>
+      </c>
+      <c r="D285" t="s">
+        <v>311</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45420</v>
+      </c>
+      <c r="G285" t="s">
+        <v>360</v>
+      </c>
+      <c r="H285" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>282</v>
+      </c>
+      <c r="B286">
+        <v>2024</v>
+      </c>
+      <c r="C286">
+        <v>31550</v>
+      </c>
+      <c r="D286" t="s">
+        <v>345</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45232</v>
+      </c>
+      <c r="H286" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" t="s">
+        <v>250</v>
+      </c>
+      <c r="B287">
+        <v>2024</v>
+      </c>
+      <c r="C287">
+        <v>360000</v>
+      </c>
+      <c r="D287" t="s">
+        <v>324</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45426</v>
+      </c>
+      <c r="H287" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" t="s">
+        <v>283</v>
+      </c>
+      <c r="B288">
+        <v>2024</v>
+      </c>
+      <c r="C288">
+        <v>29760</v>
+      </c>
+      <c r="D288" t="s">
+        <v>311</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45429</v>
+      </c>
+      <c r="G288" t="s">
+        <v>360</v>
+      </c>
+      <c r="H288" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>284</v>
+      </c>
+      <c r="B289">
+        <v>2024</v>
+      </c>
+      <c r="C289">
+        <v>21012</v>
+      </c>
+      <c r="D289" t="s">
+        <v>339</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45448</v>
+      </c>
+      <c r="H289" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" t="s">
+        <v>285</v>
+      </c>
+      <c r="B290">
+        <v>2024</v>
+      </c>
+      <c r="C290">
+        <v>19350</v>
+      </c>
+      <c r="D290" t="s">
+        <v>311</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45436</v>
+      </c>
+      <c r="H290" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" t="s">
+        <v>280</v>
+      </c>
+      <c r="B291">
+        <v>2024</v>
+      </c>
+      <c r="C291">
+        <v>59832</v>
+      </c>
+      <c r="D291" t="s">
+        <v>311</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45446</v>
+      </c>
+      <c r="H291" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>286</v>
+      </c>
+      <c r="B292">
+        <v>2024</v>
+      </c>
+      <c r="C292">
+        <v>50400</v>
+      </c>
+      <c r="D292" t="s">
+        <v>311</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45447</v>
+      </c>
+      <c r="G292" t="s">
+        <v>366</v>
+      </c>
+      <c r="H292" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" t="s">
+        <v>183</v>
+      </c>
+      <c r="B293">
+        <v>2024</v>
+      </c>
+      <c r="C293">
+        <v>6708.12</v>
+      </c>
+      <c r="D293" t="s">
+        <v>327</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45378</v>
+      </c>
+      <c r="H293" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" t="s">
+        <v>287</v>
+      </c>
+      <c r="B294">
+        <v>2024</v>
+      </c>
+      <c r="C294">
+        <v>129216</v>
+      </c>
+      <c r="D294" t="s">
+        <v>312</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45450</v>
+      </c>
+      <c r="H294" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>288</v>
+      </c>
+      <c r="B295">
+        <v>2024</v>
+      </c>
+      <c r="C295">
+        <v>37272</v>
+      </c>
+      <c r="D295" t="s">
+        <v>312</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45453</v>
+      </c>
+      <c r="H295" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" t="s">
+        <v>289</v>
+      </c>
+      <c r="B296">
+        <v>2024</v>
+      </c>
+      <c r="C296">
+        <v>20388</v>
+      </c>
+      <c r="D296" t="s">
+        <v>311</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45456</v>
+      </c>
+      <c r="H296" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" t="s">
+        <v>290</v>
+      </c>
+      <c r="B297">
+        <v>2024</v>
+      </c>
+      <c r="C297">
+        <v>5000</v>
+      </c>
+      <c r="D297" t="s">
+        <v>327</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45457</v>
+      </c>
+      <c r="H297" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>291</v>
+      </c>
+      <c r="B298">
+        <v>2024</v>
+      </c>
+      <c r="C298">
+        <v>78804</v>
+      </c>
+      <c r="D298" t="s">
+        <v>312</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45469</v>
+      </c>
+      <c r="G298" t="s">
+        <v>361</v>
+      </c>
+      <c r="H298" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" t="s">
+        <v>292</v>
+      </c>
+      <c r="B299">
+        <v>2024</v>
+      </c>
+      <c r="C299">
+        <v>146340</v>
+      </c>
+      <c r="D299" t="s">
+        <v>322</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45462</v>
+      </c>
+      <c r="G299" t="s">
+        <v>374</v>
+      </c>
+      <c r="H299" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" t="s">
+        <v>293</v>
+      </c>
+      <c r="B300">
+        <v>2024</v>
+      </c>
+      <c r="C300">
+        <v>191400</v>
+      </c>
+      <c r="D300" t="s">
+        <v>309</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45476</v>
+      </c>
+      <c r="H300" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>294</v>
+      </c>
+      <c r="B301">
+        <v>2024</v>
+      </c>
+      <c r="C301">
+        <v>55116</v>
+      </c>
+      <c r="D301" t="s">
+        <v>311</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45488</v>
+      </c>
+      <c r="H301" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" t="s">
+        <v>295</v>
+      </c>
+      <c r="B302">
+        <v>2024</v>
+      </c>
+      <c r="C302">
+        <v>41460</v>
+      </c>
+      <c r="D302" t="s">
+        <v>312</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45516</v>
+      </c>
+      <c r="H302" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" t="s">
+        <v>296</v>
+      </c>
+      <c r="B303">
+        <v>2024</v>
+      </c>
+      <c r="C303">
+        <v>40152</v>
+      </c>
+      <c r="D303" t="s">
+        <v>311</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45467</v>
+      </c>
+      <c r="H303" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>297</v>
+      </c>
+      <c r="B304">
+        <v>2024</v>
+      </c>
+      <c r="C304">
+        <v>83544</v>
+      </c>
+      <c r="D304" t="s">
+        <v>311</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45484</v>
+      </c>
+      <c r="H304" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" t="s">
+        <v>298</v>
+      </c>
+      <c r="B305">
+        <v>2024</v>
+      </c>
+      <c r="C305">
+        <v>60060</v>
+      </c>
+      <c r="D305" t="s">
+        <v>311</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45498</v>
+      </c>
+      <c r="H305" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" t="s">
+        <v>299</v>
+      </c>
+      <c r="B306">
+        <v>2024</v>
+      </c>
+      <c r="C306">
+        <v>67236</v>
+      </c>
+      <c r="D306" t="s">
+        <v>311</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45513</v>
+      </c>
+      <c r="H306" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307" t="s">
+        <v>300</v>
+      </c>
+      <c r="B307">
+        <v>2024</v>
+      </c>
+      <c r="C307">
+        <v>1413732</v>
+      </c>
+      <c r="D307" t="s">
+        <v>313</v>
+      </c>
+      <c r="E307" s="2">
+        <v>45516</v>
+      </c>
+      <c r="H307" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>301</v>
+      </c>
+      <c r="B308">
+        <v>2024</v>
+      </c>
+      <c r="C308">
+        <v>193860</v>
+      </c>
+      <c r="D308" t="s">
+        <v>313</v>
+      </c>
+      <c r="E308" s="2">
+        <v>45526</v>
+      </c>
+      <c r="H308" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309" t="s">
+        <v>301</v>
+      </c>
+      <c r="B309">
+        <v>2024</v>
+      </c>
+      <c r="C309">
+        <v>49752</v>
+      </c>
+      <c r="D309" t="s">
+        <v>320</v>
+      </c>
+      <c r="E309" s="2">
+        <v>45526</v>
+      </c>
+      <c r="H309" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310" t="s">
+        <v>302</v>
+      </c>
+      <c r="B310">
+        <v>2024</v>
+      </c>
+      <c r="C310">
+        <v>177066</v>
+      </c>
+      <c r="D310" t="s">
+        <v>344</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45531</v>
+      </c>
+      <c r="H310" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>259</v>
+      </c>
+      <c r="B311">
+        <v>2024</v>
+      </c>
+      <c r="C311">
+        <v>31956</v>
+      </c>
+      <c r="D311" t="s">
+        <v>312</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45534</v>
+      </c>
+      <c r="G311" t="s">
+        <v>375</v>
+      </c>
+      <c r="H311" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312" t="s">
+        <v>303</v>
+      </c>
+      <c r="B312">
+        <v>2024</v>
+      </c>
+      <c r="C312">
+        <v>158161.92</v>
+      </c>
+      <c r="D312" t="s">
+        <v>311</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45545</v>
+      </c>
+      <c r="H312" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313" t="s">
+        <v>304</v>
+      </c>
+      <c r="B313">
+        <v>2024</v>
+      </c>
+      <c r="C313">
+        <v>53700</v>
+      </c>
+      <c r="D313" t="s">
+        <v>320</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45546</v>
+      </c>
+      <c r="H313" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" t="s">
+        <v>305</v>
+      </c>
+      <c r="B314">
+        <v>2024</v>
+      </c>
+      <c r="C314">
+        <v>69000</v>
+      </c>
+      <c r="D314" t="s">
+        <v>312</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45551</v>
+      </c>
+      <c r="H314" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315" t="s">
+        <v>306</v>
+      </c>
+      <c r="B315">
+        <v>2024</v>
+      </c>
+      <c r="C315">
+        <v>24988</v>
+      </c>
+      <c r="D315" t="s">
+        <v>311</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45559</v>
+      </c>
+      <c r="G315" t="s">
+        <v>360</v>
+      </c>
+      <c r="H315" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="A316" t="s">
+        <v>307</v>
+      </c>
+      <c r="B316">
+        <v>2024</v>
+      </c>
+      <c r="C316">
+        <v>61860</v>
+      </c>
+      <c r="D316" t="s">
+        <v>312</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45561</v>
+      </c>
+      <c r="H316" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
